--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_24_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_24_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2628905.84933304</v>
+        <v>-2629581.176915793</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10963864.64421075</v>
+        <v>10963864.64421074</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681858</v>
+        <v>590120.9651681855</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>108.8926439055178</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>81.41933302178319</v>
       </c>
       <c r="F11" t="n">
-        <v>95.91264075197999</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>108.8926439055178</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>108.8926439055178</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>14.49330773019685</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>108.8926439055178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>18.33977076023192</v>
+        <v>18.33977076023189</v>
       </c>
       <c r="V12" t="n">
-        <v>25.60878921364559</v>
+        <v>25.60878921364557</v>
       </c>
       <c r="W12" t="n">
-        <v>43.68940492399051</v>
+        <v>43.68940492399048</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>12.17897610810432</v>
+        <v>12.17897610810429</v>
       </c>
       <c r="T13" t="n">
-        <v>21.08161657925135</v>
+        <v>21.08161657925132</v>
       </c>
       <c r="U13" t="n">
-        <v>79.74018931927282</v>
+        <v>79.74018931927279</v>
       </c>
       <c r="V13" t="n">
-        <v>46.63640924092962</v>
+        <v>46.63640924092959</v>
       </c>
       <c r="W13" t="n">
-        <v>79.792635061406</v>
+        <v>79.79263506140597</v>
       </c>
       <c r="X13" t="n">
-        <v>19.84041810629972</v>
+        <v>19.84041810629969</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.44873204175869</v>
+        <v>12.44873204175866</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>95.91264075198004</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>108.8926439055178</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>108.8926439055178</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>108.8926439055178</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>108.8926439055178</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>14.49330773019685</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>45.13813028023969</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>108.8926439055178</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>36.28120274154352</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>18.33977076023192</v>
+        <v>18.33977076023189</v>
       </c>
       <c r="V15" t="n">
-        <v>25.60878921364559</v>
+        <v>25.60878921364557</v>
       </c>
       <c r="W15" t="n">
-        <v>43.68940492399051</v>
+        <v>43.68940492399048</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>12.17897610810432</v>
+        <v>12.17897610810429</v>
       </c>
       <c r="T16" t="n">
-        <v>21.08161657925135</v>
+        <v>21.08161657925132</v>
       </c>
       <c r="U16" t="n">
-        <v>79.74018931927282</v>
+        <v>79.74018931927279</v>
       </c>
       <c r="V16" t="n">
-        <v>46.63640924092962</v>
+        <v>46.63640924092959</v>
       </c>
       <c r="W16" t="n">
-        <v>79.792635061406</v>
+        <v>79.79263506140597</v>
       </c>
       <c r="X16" t="n">
-        <v>19.84041810629972</v>
+        <v>19.84041810629969</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.44873204175869</v>
+        <v>12.44873204175866</v>
       </c>
     </row>
     <row r="17">
@@ -2087,7 +2087,7 @@
         <v>23.54195774345038</v>
       </c>
       <c r="E20" t="n">
-        <v>50.05526074413945</v>
+        <v>50.05526074413935</v>
       </c>
       <c r="F20" t="n">
         <v>74.23108846939283</v>
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>8.57820164310013</v>
+        <v>8.578201643100131</v>
       </c>
       <c r="U27" t="n">
         <v>35.90537285454155</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>8.57820164310013</v>
+        <v>8.578201643100131</v>
       </c>
       <c r="U30" t="n">
         <v>35.90537285454155</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>194.9820702596951</v>
+        <v>194.9820702596952</v>
       </c>
       <c r="C32" t="n">
-        <v>178.2507559472427</v>
+        <v>178.2507559472428</v>
       </c>
       <c r="D32" t="n">
-        <v>167.8703930228985</v>
+        <v>167.8703930228986</v>
       </c>
       <c r="E32" t="n">
         <v>194.3836960235876</v>
       </c>
       <c r="F32" t="n">
-        <v>218.5595237488409</v>
+        <v>218.559523748841</v>
       </c>
       <c r="G32" t="n">
-        <v>225.6242822934414</v>
+        <v>225.6242822934415</v>
       </c>
       <c r="H32" t="n">
-        <v>144.3284352794481</v>
+        <v>144.3284352794482</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>5.824744749948934</v>
+        <v>5.824744749948991</v>
       </c>
       <c r="T32" t="n">
-        <v>32.05890982450651</v>
+        <v>32.05890982450657</v>
       </c>
       <c r="U32" t="n">
-        <v>62.70373237454936</v>
+        <v>62.70373237454942</v>
       </c>
       <c r="V32" t="n">
         <v>139.7988817908195</v>
@@ -3092,10 +3092,10 @@
         <v>161.7957772688547</v>
       </c>
       <c r="X32" t="n">
-        <v>182.1272593994695</v>
+        <v>182.1272593994696</v>
       </c>
       <c r="Y32" t="n">
-        <v>197.9527320195359</v>
+        <v>197.952732019536</v>
       </c>
     </row>
     <row r="33">
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>8.57820164310013</v>
+        <v>8.578201643100188</v>
       </c>
       <c r="U33" t="n">
-        <v>35.90537285454155</v>
+        <v>35.90537285454161</v>
       </c>
       <c r="V33" t="n">
-        <v>43.17439130795523</v>
+        <v>43.17439130795529</v>
       </c>
       <c r="W33" t="n">
-        <v>61.25500701830015</v>
+        <v>61.2550070183002</v>
       </c>
       <c r="X33" t="n">
-        <v>15.72728987677837</v>
+        <v>15.72728987677843</v>
       </c>
       <c r="Y33" t="n">
-        <v>14.93681168688613</v>
+        <v>14.93681168688619</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>29.74457820241395</v>
+        <v>29.74457820241401</v>
       </c>
       <c r="T34" t="n">
-        <v>38.64721867356099</v>
+        <v>38.64721867356105</v>
       </c>
       <c r="U34" t="n">
-        <v>97.30579141358245</v>
+        <v>97.30579141358251</v>
       </c>
       <c r="V34" t="n">
-        <v>64.20201133523926</v>
+        <v>64.20201133523932</v>
       </c>
       <c r="W34" t="n">
-        <v>97.35823715571564</v>
+        <v>97.3582371557157</v>
       </c>
       <c r="X34" t="n">
-        <v>37.40602020060936</v>
+        <v>37.40602020060942</v>
       </c>
       <c r="Y34" t="n">
-        <v>30.01433413606833</v>
+        <v>30.01433413606838</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>30.64482255004284</v>
+        <v>30.64482255004285</v>
       </c>
       <c r="V35" t="n">
         <v>107.7399719663129</v>
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>162.9231604351887</v>
+        <v>162.9231604351886</v>
       </c>
       <c r="C38" t="n">
-        <v>146.1918461227363</v>
+        <v>146.1918461227362</v>
       </c>
       <c r="D38" t="n">
         <v>135.811483198392</v>
       </c>
       <c r="E38" t="n">
-        <v>162.3247861990811</v>
+        <v>162.324786199081</v>
       </c>
       <c r="F38" t="n">
-        <v>186.5006139243345</v>
+        <v>186.5006139243344</v>
       </c>
       <c r="G38" t="n">
         <v>193.5653724689349</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>30.64482255004287</v>
+        <v>30.64482255004285</v>
       </c>
       <c r="V38" t="n">
-        <v>107.739971966313</v>
+        <v>107.7399719663129</v>
       </c>
       <c r="W38" t="n">
         <v>129.7368674443482</v>
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>3.84646303003507</v>
+        <v>3.846463030035042</v>
       </c>
       <c r="V39" t="n">
-        <v>11.11548148344875</v>
+        <v>11.11548148344872</v>
       </c>
       <c r="W39" t="n">
-        <v>29.19609719379366</v>
+        <v>29.19609719379363</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>6.588308849054503</v>
+        <v>6.588308849054474</v>
       </c>
       <c r="U40" t="n">
-        <v>65.24688158907597</v>
+        <v>65.24688158907594</v>
       </c>
       <c r="V40" t="n">
-        <v>32.14310151073278</v>
+        <v>32.14310151073275</v>
       </c>
       <c r="W40" t="n">
-        <v>65.29932733120916</v>
+        <v>65.29932733120913</v>
       </c>
       <c r="X40" t="n">
-        <v>5.347110376102876</v>
+        <v>5.347110376102847</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>146.1918461227362</v>
       </c>
       <c r="D41" t="n">
-        <v>135.8114831983919</v>
+        <v>135.811483198392</v>
       </c>
       <c r="E41" t="n">
         <v>162.324786199081</v>
@@ -3752,10 +3752,10 @@
         <v>186.5006139243344</v>
       </c>
       <c r="G41" t="n">
-        <v>193.5653724689348</v>
+        <v>193.5653724689349</v>
       </c>
       <c r="H41" t="n">
-        <v>112.2695254549415</v>
+        <v>112.2695254549416</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.64482255004279</v>
+        <v>30.64482255004285</v>
       </c>
       <c r="V41" t="n">
         <v>107.7399719663129</v>
       </c>
       <c r="W41" t="n">
-        <v>129.7368674443481</v>
+        <v>129.7368674443482</v>
       </c>
       <c r="X41" t="n">
-        <v>150.0683495749629</v>
+        <v>150.068349574963</v>
       </c>
       <c r="Y41" t="n">
-        <v>165.8938221950293</v>
+        <v>165.8938221950294</v>
       </c>
     </row>
     <row r="42">
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>3.846463030034985</v>
+        <v>3.846463030035042</v>
       </c>
       <c r="V42" t="n">
-        <v>11.11548148344866</v>
+        <v>11.11548148344872</v>
       </c>
       <c r="W42" t="n">
-        <v>29.19609719379358</v>
+        <v>29.19609719379363</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.588308849054417</v>
+        <v>6.588308849054474</v>
       </c>
       <c r="U43" t="n">
-        <v>65.24688158907588</v>
+        <v>65.24688158907594</v>
       </c>
       <c r="V43" t="n">
-        <v>32.14310151073269</v>
+        <v>32.14310151073275</v>
       </c>
       <c r="W43" t="n">
-        <v>65.29932733120907</v>
+        <v>65.29932733120913</v>
       </c>
       <c r="X43" t="n">
-        <v>5.34711037610279</v>
+        <v>5.347110376102847</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>215.585436419005</v>
+        <v>420.9308708440947</v>
       </c>
       <c r="C11" t="n">
-        <v>215.585436419005</v>
+        <v>420.9308708440947</v>
       </c>
       <c r="D11" t="n">
-        <v>215.585436419005</v>
+        <v>310.9383012425615</v>
       </c>
       <c r="E11" t="n">
-        <v>215.585436419005</v>
+        <v>228.6965507155078</v>
       </c>
       <c r="F11" t="n">
+        <v>228.6965507155078</v>
+      </c>
+      <c r="G11" t="n">
         <v>118.7039811139746</v>
-      </c>
-      <c r="G11" t="n">
-        <v>8.711411512441426</v>
       </c>
       <c r="H11" t="n">
         <v>8.711411512441426</v>
       </c>
       <c r="I11" t="n">
-        <v>28.71258106161149</v>
+        <v>28.71258106161152</v>
       </c>
       <c r="J11" t="n">
-        <v>99.88341772116706</v>
+        <v>99.88341772116712</v>
       </c>
       <c r="K11" t="n">
-        <v>154.1588167316727</v>
+        <v>99.88341772116712</v>
       </c>
       <c r="L11" t="n">
-        <v>208.3344218598832</v>
+        <v>154.0590228493777</v>
       </c>
       <c r="M11" t="n">
-        <v>208.3344218598832</v>
+        <v>222.2015153174077</v>
       </c>
       <c r="N11" t="n">
-        <v>208.3344218598832</v>
+        <v>222.2015153174077</v>
       </c>
       <c r="O11" t="n">
-        <v>282.0650428574209</v>
+        <v>330.0052327838704</v>
       </c>
       <c r="P11" t="n">
-        <v>333.7369137668435</v>
+        <v>381.677103693293</v>
       </c>
       <c r="Q11" t="n">
-        <v>423.9471268511542</v>
+        <v>396.9499169719982</v>
       </c>
       <c r="R11" t="n">
         <v>423.9471268511542</v>
@@ -5069,22 +5069,22 @@
         <v>435.5705756220713</v>
       </c>
       <c r="T11" t="n">
-        <v>435.5705756220713</v>
+        <v>420.9308708440947</v>
       </c>
       <c r="U11" t="n">
-        <v>435.5705756220713</v>
+        <v>420.9308708440947</v>
       </c>
       <c r="V11" t="n">
-        <v>435.5705756220713</v>
+        <v>420.9308708440947</v>
       </c>
       <c r="W11" t="n">
-        <v>435.5705756220713</v>
+        <v>420.9308708440947</v>
       </c>
       <c r="X11" t="n">
-        <v>435.5705756220713</v>
+        <v>420.9308708440947</v>
       </c>
       <c r="Y11" t="n">
-        <v>325.5780060205382</v>
+        <v>420.9308708440947</v>
       </c>
     </row>
     <row r="12">
@@ -5136,25 +5136,25 @@
         <v>8.711411512441426</v>
       </c>
       <c r="P12" t="n">
-        <v>97.2346083789748</v>
+        <v>97.23460837897471</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.2346083789748</v>
+        <v>97.23460837897471</v>
       </c>
       <c r="R12" t="n">
-        <v>97.2346083789748</v>
+        <v>97.23460837897471</v>
       </c>
       <c r="S12" t="n">
-        <v>97.2346083789748</v>
+        <v>97.23460837897471</v>
       </c>
       <c r="T12" t="n">
-        <v>97.2346083789748</v>
+        <v>97.23460837897471</v>
       </c>
       <c r="U12" t="n">
-        <v>78.70958740904356</v>
+        <v>78.70958740904351</v>
       </c>
       <c r="V12" t="n">
-        <v>52.84212355687629</v>
+        <v>52.84212355687626</v>
       </c>
       <c r="W12" t="n">
         <v>8.711411512441426</v>
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.711411512441426</v>
+        <v>34.66549934441392</v>
       </c>
       <c r="C13" t="n">
-        <v>47.28516651830056</v>
+        <v>34.66549934441392</v>
       </c>
       <c r="D13" t="n">
-        <v>104.0065980766758</v>
+        <v>34.66549934441392</v>
       </c>
       <c r="E13" t="n">
-        <v>104.0065980766758</v>
+        <v>34.66549934441392</v>
       </c>
       <c r="F13" t="n">
-        <v>163.5461092887188</v>
+        <v>34.66549934441392</v>
       </c>
       <c r="G13" t="n">
-        <v>201.7926859666023</v>
+        <v>34.66549934441392</v>
       </c>
       <c r="H13" t="n">
-        <v>247.970807177345</v>
+        <v>34.66549934441392</v>
       </c>
       <c r="I13" t="n">
-        <v>247.970807177345</v>
+        <v>34.66549934441392</v>
       </c>
       <c r="J13" t="n">
-        <v>247.970807177345</v>
+        <v>34.66549934441392</v>
       </c>
       <c r="K13" t="n">
-        <v>247.970807177345</v>
+        <v>139.9704218832914</v>
       </c>
       <c r="L13" t="n">
-        <v>283.1750240952924</v>
+        <v>185.2324508254444</v>
       </c>
       <c r="M13" t="n">
-        <v>283.1750240952924</v>
+        <v>185.2324508254444</v>
       </c>
       <c r="N13" t="n">
-        <v>283.1750240952924</v>
+        <v>185.2324508254444</v>
       </c>
       <c r="O13" t="n">
-        <v>283.1750240952924</v>
+        <v>185.2324508254444</v>
       </c>
       <c r="P13" t="n">
-        <v>283.1750240952924</v>
+        <v>283.1750240952923</v>
       </c>
       <c r="Q13" t="n">
-        <v>283.1750240952924</v>
+        <v>283.1750240952923</v>
       </c>
       <c r="R13" t="n">
-        <v>283.1750240952924</v>
+        <v>283.1750240952923</v>
       </c>
       <c r="S13" t="n">
-        <v>270.8730280265002</v>
+        <v>270.8730280265</v>
       </c>
       <c r="T13" t="n">
-        <v>249.5784658252362</v>
+        <v>249.5784658252361</v>
       </c>
       <c r="U13" t="n">
-        <v>169.032820048193</v>
+        <v>169.0328200481929</v>
       </c>
       <c r="V13" t="n">
-        <v>121.9253359664459</v>
+        <v>121.9253359664458</v>
       </c>
       <c r="W13" t="n">
-        <v>41.32671469229841</v>
+        <v>41.32671469229835</v>
       </c>
       <c r="X13" t="n">
-        <v>21.28588832229869</v>
+        <v>21.28588832229866</v>
       </c>
       <c r="Y13" t="n">
         <v>8.711411512441426</v>
@@ -5258,46 +5258,46 @@
         <v>228.6965507155078</v>
       </c>
       <c r="D14" t="n">
-        <v>228.6965507155078</v>
+        <v>118.7039811139746</v>
       </c>
       <c r="E14" t="n">
-        <v>228.6965507155078</v>
+        <v>8.711411512441426</v>
       </c>
       <c r="F14" t="n">
-        <v>228.6965507155078</v>
+        <v>8.711411512441426</v>
       </c>
       <c r="G14" t="n">
-        <v>118.7039811139746</v>
+        <v>8.711411512441426</v>
       </c>
       <c r="H14" t="n">
         <v>8.711411512441426</v>
       </c>
       <c r="I14" t="n">
-        <v>8.711411512441426</v>
+        <v>28.71258106161152</v>
       </c>
       <c r="J14" t="n">
-        <v>79.88224817199701</v>
+        <v>28.71258106161152</v>
       </c>
       <c r="K14" t="n">
-        <v>79.88224817199701</v>
+        <v>28.71258106161152</v>
       </c>
       <c r="L14" t="n">
-        <v>79.88224817199701</v>
+        <v>28.71258106161152</v>
       </c>
       <c r="M14" t="n">
-        <v>79.88224817199701</v>
+        <v>56.67539803083532</v>
       </c>
       <c r="N14" t="n">
-        <v>150.3210533269976</v>
+        <v>127.1142031858359</v>
       </c>
       <c r="O14" t="n">
-        <v>215.2143290791978</v>
+        <v>234.9179206522986</v>
       </c>
       <c r="P14" t="n">
-        <v>316.1434093846916</v>
+        <v>286.5897915617212</v>
       </c>
       <c r="Q14" t="n">
-        <v>423.9471268511542</v>
+        <v>329.2882910707755</v>
       </c>
       <c r="R14" t="n">
         <v>423.9471268511542</v>
@@ -5306,22 +5306,22 @@
         <v>435.5705756220713</v>
       </c>
       <c r="T14" t="n">
-        <v>435.5705756220713</v>
+        <v>420.9308708440947</v>
       </c>
       <c r="U14" t="n">
-        <v>435.5705756220713</v>
+        <v>375.3367998539536</v>
       </c>
       <c r="V14" t="n">
-        <v>435.5705756220713</v>
+        <v>375.3367998539536</v>
       </c>
       <c r="W14" t="n">
-        <v>325.5780060205382</v>
+        <v>265.3442302524204</v>
       </c>
       <c r="X14" t="n">
-        <v>325.5780060205382</v>
+        <v>228.6965507155078</v>
       </c>
       <c r="Y14" t="n">
-        <v>325.5780060205382</v>
+        <v>228.6965507155078</v>
       </c>
     </row>
     <row r="15">
@@ -5331,67 +5331,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>49.22994956594948</v>
+        <v>8.711411512441426</v>
       </c>
       <c r="C15" t="n">
-        <v>49.22994956594948</v>
+        <v>8.711411512441426</v>
       </c>
       <c r="D15" t="n">
-        <v>49.22994956594948</v>
+        <v>8.711411512441426</v>
       </c>
       <c r="E15" t="n">
-        <v>49.22994956594948</v>
+        <v>8.711411512441426</v>
       </c>
       <c r="F15" t="n">
-        <v>49.22994956594948</v>
+        <v>8.711411512441426</v>
       </c>
       <c r="G15" t="n">
-        <v>97.2346083789748</v>
+        <v>8.711411512441426</v>
       </c>
       <c r="H15" t="n">
-        <v>97.2346083789748</v>
+        <v>8.711411512441426</v>
       </c>
       <c r="I15" t="n">
-        <v>97.2346083789748</v>
+        <v>8.711411512441426</v>
       </c>
       <c r="J15" t="n">
-        <v>97.2346083789748</v>
+        <v>8.711411512441426</v>
       </c>
       <c r="K15" t="n">
-        <v>97.2346083789748</v>
+        <v>8.711411512441426</v>
       </c>
       <c r="L15" t="n">
-        <v>97.2346083789748</v>
+        <v>8.711411512441426</v>
       </c>
       <c r="M15" t="n">
-        <v>97.2346083789748</v>
+        <v>8.711411512441426</v>
       </c>
       <c r="N15" t="n">
-        <v>97.2346083789748</v>
+        <v>8.711411512441426</v>
       </c>
       <c r="O15" t="n">
-        <v>97.2346083789748</v>
+        <v>8.711411512441426</v>
       </c>
       <c r="P15" t="n">
-        <v>97.2346083789748</v>
+        <v>97.23460837897471</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.2346083789748</v>
+        <v>97.23460837897471</v>
       </c>
       <c r="R15" t="n">
-        <v>97.2346083789748</v>
+        <v>97.23460837897471</v>
       </c>
       <c r="S15" t="n">
-        <v>97.2346083789748</v>
+        <v>97.23460837897471</v>
       </c>
       <c r="T15" t="n">
-        <v>97.2346083789748</v>
+        <v>97.23460837897471</v>
       </c>
       <c r="U15" t="n">
-        <v>78.70958740904356</v>
+        <v>78.70958740904351</v>
       </c>
       <c r="V15" t="n">
-        <v>52.84212355687629</v>
+        <v>52.84212355687626</v>
       </c>
       <c r="W15" t="n">
         <v>8.711411512441426</v>
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.75084126368186</v>
+        <v>8.711411512441426</v>
       </c>
       <c r="C16" t="n">
-        <v>19.75084126368186</v>
+        <v>8.711411512441426</v>
       </c>
       <c r="D16" t="n">
-        <v>19.75084126368186</v>
+        <v>8.711411512441426</v>
       </c>
       <c r="E16" t="n">
-        <v>78.48290573996411</v>
+        <v>8.711411512441426</v>
       </c>
       <c r="F16" t="n">
-        <v>78.48290573996411</v>
+        <v>68.25092272448444</v>
       </c>
       <c r="G16" t="n">
-        <v>116.7294824178476</v>
+        <v>106.4974994023679</v>
       </c>
       <c r="H16" t="n">
-        <v>116.7294824178476</v>
+        <v>106.4974994023679</v>
       </c>
       <c r="I16" t="n">
-        <v>175.3713066288298</v>
+        <v>106.4974994023679</v>
       </c>
       <c r="J16" t="n">
-        <v>175.3713066288298</v>
+        <v>106.4974994023679</v>
       </c>
       <c r="K16" t="n">
-        <v>175.3713066288298</v>
+        <v>106.4974994023679</v>
       </c>
       <c r="L16" t="n">
-        <v>175.3713066288298</v>
+        <v>106.4974994023679</v>
       </c>
       <c r="M16" t="n">
-        <v>175.3713066288298</v>
+        <v>106.4974994023679</v>
       </c>
       <c r="N16" t="n">
-        <v>283.1750240952924</v>
+        <v>206.7288766823868</v>
       </c>
       <c r="O16" t="n">
-        <v>283.1750240952924</v>
+        <v>206.7288766823868</v>
       </c>
       <c r="P16" t="n">
-        <v>283.1750240952924</v>
+        <v>206.7288766823868</v>
       </c>
       <c r="Q16" t="n">
-        <v>283.1750240952924</v>
+        <v>283.1750240952923</v>
       </c>
       <c r="R16" t="n">
-        <v>283.1750240952924</v>
+        <v>283.1750240952923</v>
       </c>
       <c r="S16" t="n">
-        <v>270.8730280265002</v>
+        <v>270.8730280265</v>
       </c>
       <c r="T16" t="n">
-        <v>249.5784658252362</v>
+        <v>249.5784658252361</v>
       </c>
       <c r="U16" t="n">
-        <v>169.032820048193</v>
+        <v>169.0328200481929</v>
       </c>
       <c r="V16" t="n">
-        <v>121.9253359664459</v>
+        <v>121.9253359664458</v>
       </c>
       <c r="W16" t="n">
-        <v>41.32671469229841</v>
+        <v>41.32671469229835</v>
       </c>
       <c r="X16" t="n">
-        <v>21.28588832229869</v>
+        <v>21.28588832229866</v>
       </c>
       <c r="Y16" t="n">
         <v>8.711411512441426</v>
@@ -5513,10 +5513,10 @@
         <v>8.711411512441419</v>
       </c>
       <c r="J17" t="n">
-        <v>8.711411512441419</v>
+        <v>116.515128978904</v>
       </c>
       <c r="K17" t="n">
-        <v>8.711411512441419</v>
+        <v>116.515128978904</v>
       </c>
       <c r="L17" t="n">
         <v>116.515128978904</v>
@@ -5525,28 +5525,28 @@
         <v>116.515128978904</v>
       </c>
       <c r="N17" t="n">
-        <v>139.1546848132961</v>
+        <v>116.515128978904</v>
       </c>
       <c r="O17" t="n">
-        <v>139.1546848132961</v>
+        <v>116.515128978904</v>
       </c>
       <c r="P17" t="n">
-        <v>246.9584022797586</v>
+        <v>224.3188464453665</v>
       </c>
       <c r="Q17" t="n">
-        <v>246.9584022797586</v>
+        <v>224.3188464453665</v>
       </c>
       <c r="R17" t="n">
-        <v>246.9584022797586</v>
+        <v>224.3188464453665</v>
       </c>
       <c r="S17" t="n">
-        <v>246.9584022797586</v>
+        <v>332.1225639118291</v>
       </c>
       <c r="T17" t="n">
-        <v>354.7621197462212</v>
+        <v>350.2778617924788</v>
       </c>
       <c r="U17" t="n">
-        <v>435.5705756220709</v>
+        <v>431.0863176683285</v>
       </c>
       <c r="V17" t="n">
         <v>435.5705756220709</v>
@@ -5735,7 +5735,7 @@
         <v>216.3701955806491</v>
       </c>
       <c r="E20" t="n">
-        <v>165.8093261421243</v>
+        <v>165.8093261421245</v>
       </c>
       <c r="F20" t="n">
         <v>90.82842869829324</v>
@@ -5750,40 +5750,40 @@
         <v>8.711411512441419</v>
       </c>
       <c r="J20" t="n">
-        <v>8.711411512441419</v>
+        <v>116.515128978904</v>
       </c>
       <c r="K20" t="n">
-        <v>8.711411512441419</v>
+        <v>116.515128978904</v>
       </c>
       <c r="L20" t="n">
-        <v>26.86670939309113</v>
+        <v>116.515128978904</v>
       </c>
       <c r="M20" t="n">
-        <v>26.86670939309113</v>
+        <v>116.515128978904</v>
       </c>
       <c r="N20" t="n">
-        <v>26.86670939309113</v>
+        <v>116.515128978904</v>
       </c>
       <c r="O20" t="n">
-        <v>26.86670939309113</v>
+        <v>116.515128978904</v>
       </c>
       <c r="P20" t="n">
-        <v>26.86670939309113</v>
+        <v>116.515128978904</v>
       </c>
       <c r="Q20" t="n">
-        <v>26.86670939309113</v>
+        <v>219.9631406891458</v>
       </c>
       <c r="R20" t="n">
-        <v>134.6704268595537</v>
+        <v>327.7668581556084</v>
       </c>
       <c r="S20" t="n">
-        <v>242.4741443260162</v>
+        <v>327.7668581556084</v>
       </c>
       <c r="T20" t="n">
-        <v>350.2778617924788</v>
+        <v>435.5705756220709</v>
       </c>
       <c r="U20" t="n">
-        <v>431.0863176683285</v>
+        <v>435.5705756220709</v>
       </c>
       <c r="V20" t="n">
         <v>435.5705756220709</v>
@@ -5969,10 +5969,10 @@
         <v>240.1499508770635</v>
       </c>
       <c r="D23" t="n">
-        <v>216.370195580649</v>
+        <v>216.3701955806491</v>
       </c>
       <c r="E23" t="n">
-        <v>165.8093261421242</v>
+        <v>165.8093261421245</v>
       </c>
       <c r="F23" t="n">
         <v>90.82842869829324</v>
@@ -5990,40 +5990,40 @@
         <v>8.711411512441419</v>
       </c>
       <c r="K23" t="n">
-        <v>26.86670939309117</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="L23" t="n">
-        <v>26.86670939309117</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="M23" t="n">
-        <v>134.6704268595537</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="N23" t="n">
-        <v>134.6704268595537</v>
+        <v>116.515128978904</v>
       </c>
       <c r="O23" t="n">
-        <v>134.6704268595537</v>
+        <v>224.3188464453665</v>
       </c>
       <c r="P23" t="n">
-        <v>134.6704268595537</v>
+        <v>246.9584022797586</v>
       </c>
       <c r="Q23" t="n">
-        <v>134.6704268595537</v>
+        <v>246.9584022797586</v>
       </c>
       <c r="R23" t="n">
-        <v>134.6704268595537</v>
+        <v>246.9584022797586</v>
       </c>
       <c r="S23" t="n">
-        <v>242.4741443260163</v>
+        <v>246.9584022797586</v>
       </c>
       <c r="T23" t="n">
-        <v>350.2778617924789</v>
+        <v>354.7621197462212</v>
       </c>
       <c r="U23" t="n">
-        <v>431.0863176683286</v>
+        <v>435.5705756220709</v>
       </c>
       <c r="V23" t="n">
-        <v>435.570575622071</v>
+        <v>435.5705756220709</v>
       </c>
       <c r="W23" t="n">
         <v>417.9267958347916</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1183.840412769747</v>
+        <v>1183.840412769746</v>
       </c>
       <c r="C26" t="n">
-        <v>1003.789144136168</v>
+        <v>1003.789144136167</v>
       </c>
       <c r="D26" t="n">
-        <v>834.2230905776848</v>
+        <v>834.2230905776839</v>
       </c>
       <c r="E26" t="n">
-        <v>637.8759228770912</v>
+        <v>637.8759228770903</v>
       </c>
       <c r="F26" t="n">
-        <v>417.1087271711908</v>
+        <v>417.1087271711904</v>
       </c>
       <c r="G26" t="n">
         <v>189.2054117232694</v>
@@ -6221,31 +6221,31 @@
         <v>43.41911346120056</v>
       </c>
       <c r="I26" t="n">
-        <v>46.03033693700409</v>
+        <v>46.03033693700408</v>
       </c>
       <c r="J26" t="n">
-        <v>46.03033693700409</v>
+        <v>273.9131025043603</v>
       </c>
       <c r="K26" t="n">
-        <v>416.6559066574144</v>
+        <v>644.5386722247706</v>
       </c>
       <c r="L26" t="n">
-        <v>883.4655522134021</v>
+        <v>681.3243312796146</v>
       </c>
       <c r="M26" t="n">
-        <v>1397.037232692286</v>
+        <v>1008.049015424116</v>
       </c>
       <c r="N26" t="n">
-        <v>1900.378485148499</v>
+        <v>1044.59764445752</v>
       </c>
       <c r="O26" t="n">
-        <v>1947.881814827333</v>
+        <v>1484.172840764476</v>
       </c>
       <c r="P26" t="n">
-        <v>2113.894601575285</v>
+        <v>1849.77871553389</v>
       </c>
       <c r="Q26" t="n">
-        <v>2170.955673060028</v>
+        <v>2093.686783353016</v>
       </c>
       <c r="R26" t="n">
         <v>2170.955673060028</v>
@@ -6257,19 +6257,19 @@
         <v>2132.689355308053</v>
       </c>
       <c r="U26" t="n">
-        <v>2069.352251899418</v>
+        <v>2069.352251899417</v>
       </c>
       <c r="V26" t="n">
         <v>1928.141260191519</v>
       </c>
       <c r="W26" t="n">
-        <v>1764.711182142172</v>
+        <v>1764.711182142171</v>
       </c>
       <c r="X26" t="n">
-        <v>1580.744253455839</v>
+        <v>1580.744253455838</v>
       </c>
       <c r="Y26" t="n">
-        <v>1380.791998890651</v>
+        <v>1380.79199889065</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>43.41911346120056</v>
+        <v>51.11951315984155</v>
       </c>
       <c r="C27" t="n">
-        <v>43.41911346120056</v>
+        <v>51.11951315984155</v>
       </c>
       <c r="D27" t="n">
-        <v>43.41911346120056</v>
+        <v>51.11951315984155</v>
       </c>
       <c r="E27" t="n">
-        <v>43.41911346120056</v>
+        <v>51.11951315984155</v>
       </c>
       <c r="F27" t="n">
-        <v>43.41911346120056</v>
+        <v>51.11951315984155</v>
       </c>
       <c r="G27" t="n">
-        <v>43.41911346120056</v>
+        <v>51.11951315984155</v>
       </c>
       <c r="H27" t="n">
-        <v>43.41911346120056</v>
+        <v>51.11951315984155</v>
       </c>
       <c r="I27" t="n">
-        <v>108.5690553068709</v>
+        <v>51.11951315984155</v>
       </c>
       <c r="J27" t="n">
-        <v>108.5690553068709</v>
+        <v>51.11951315984155</v>
       </c>
       <c r="K27" t="n">
-        <v>108.5690553068709</v>
+        <v>51.11951315984155</v>
       </c>
       <c r="L27" t="n">
-        <v>108.5690553068709</v>
+        <v>51.11951315984155</v>
       </c>
       <c r="M27" t="n">
-        <v>224.8100976910607</v>
+        <v>51.11951315984155</v>
       </c>
       <c r="N27" t="n">
         <v>224.8100976910607</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.41911346120056</v>
+        <v>51.98325521980648</v>
       </c>
       <c r="C28" t="n">
-        <v>43.41911346120056</v>
+        <v>73.16706415229906</v>
       </c>
       <c r="D28" t="n">
-        <v>43.41911346120056</v>
+        <v>112.4985496373078</v>
       </c>
       <c r="E28" t="n">
-        <v>43.41911346120056</v>
+        <v>112.4985496373078</v>
       </c>
       <c r="F28" t="n">
-        <v>43.41911346120056</v>
+        <v>154.6481147759842</v>
       </c>
       <c r="G28" t="n">
-        <v>43.41911346120056</v>
+        <v>175.5047453805011</v>
       </c>
       <c r="H28" t="n">
-        <v>72.20728859857677</v>
+        <v>175.5047453805011</v>
       </c>
       <c r="I28" t="n">
-        <v>72.20728859857677</v>
+        <v>184.6997543097966</v>
       </c>
       <c r="J28" t="n">
-        <v>178.9634901685852</v>
+        <v>184.6997543097966</v>
       </c>
       <c r="K28" t="n">
-        <v>189.9348521281675</v>
+        <v>195.6711162693788</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7780332651528</v>
+        <v>195.6711162693788</v>
       </c>
       <c r="M28" t="n">
-        <v>344.0107746598725</v>
+        <v>195.6711162693788</v>
       </c>
       <c r="N28" t="n">
-        <v>344.0107746598725</v>
+        <v>283.0422532380069</v>
       </c>
       <c r="O28" t="n">
-        <v>409.3755645232786</v>
+        <v>283.0422532380069</v>
       </c>
       <c r="P28" t="n">
-        <v>442.0839529735137</v>
+        <v>315.750641688242</v>
       </c>
       <c r="Q28" t="n">
         <v>442.0839529735137</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1183.840412769745</v>
+        <v>1183.840412769744</v>
       </c>
       <c r="C29" t="n">
-        <v>1003.789144136167</v>
+        <v>1003.789144136166</v>
       </c>
       <c r="D29" t="n">
-        <v>834.2230905776836</v>
+        <v>834.2230905776827</v>
       </c>
       <c r="E29" t="n">
-        <v>637.87592287709</v>
+        <v>637.8759228770891</v>
       </c>
       <c r="F29" t="n">
-        <v>417.10872717119</v>
+        <v>417.1087271711891</v>
       </c>
       <c r="G29" t="n">
         <v>189.2054117232694</v>
       </c>
       <c r="H29" t="n">
-        <v>43.41911346120055</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="I29" t="n">
         <v>46.03033693700408</v>
       </c>
       <c r="J29" t="n">
-        <v>67.63806160956909</v>
+        <v>273.9131025043603</v>
       </c>
       <c r="K29" t="n">
-        <v>438.2636313299794</v>
+        <v>644.5386722247706</v>
       </c>
       <c r="L29" t="n">
-        <v>718.2262805515842</v>
+        <v>644.5386722247706</v>
       </c>
       <c r="M29" t="n">
-        <v>768.9788269462476</v>
+        <v>1158.110352703654</v>
       </c>
       <c r="N29" t="n">
-        <v>1272.320079402461</v>
+        <v>1211.159211785288</v>
       </c>
       <c r="O29" t="n">
-        <v>1561.441730471488</v>
+        <v>1484.172840764476</v>
       </c>
       <c r="P29" t="n">
-        <v>1927.047605240902</v>
+        <v>1849.77871553389</v>
       </c>
       <c r="Q29" t="n">
-        <v>2170.955673060027</v>
+        <v>2093.686783353016</v>
       </c>
       <c r="R29" t="n">
-        <v>2170.955673060027</v>
+        <v>2170.955673060028</v>
       </c>
       <c r="S29" t="n">
         <v>2165.072092504524</v>
       </c>
       <c r="T29" t="n">
-        <v>2132.689355308053</v>
+        <v>2132.689355308052</v>
       </c>
       <c r="U29" t="n">
-        <v>2069.352251899417</v>
+        <v>2069.352251899416</v>
       </c>
       <c r="V29" t="n">
-        <v>1928.141260191518</v>
+        <v>1928.141260191517</v>
       </c>
       <c r="W29" t="n">
-        <v>1764.71118214217</v>
+        <v>1764.711182142169</v>
       </c>
       <c r="X29" t="n">
         <v>1580.744253455837</v>
       </c>
       <c r="Y29" t="n">
-        <v>1380.79199889065</v>
+        <v>1380.791998890649</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>43.41911346120055</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="C30" t="n">
-        <v>43.41911346120055</v>
+        <v>53.01785341875343</v>
       </c>
       <c r="D30" t="n">
-        <v>43.41911346120055</v>
+        <v>95.21355041423722</v>
       </c>
       <c r="E30" t="n">
-        <v>75.79301042548136</v>
+        <v>127.587447378518</v>
       </c>
       <c r="F30" t="n">
-        <v>75.79301042548136</v>
+        <v>172.3632739501871</v>
       </c>
       <c r="G30" t="n">
-        <v>75.79301042548136</v>
+        <v>224.8100976910607</v>
       </c>
       <c r="H30" t="n">
-        <v>75.79301042548136</v>
+        <v>224.8100976910607</v>
       </c>
       <c r="I30" t="n">
-        <v>96.38935602050583</v>
+        <v>224.8100976910607</v>
       </c>
       <c r="J30" t="n">
-        <v>96.38935602050583</v>
+        <v>224.8100976910607</v>
       </c>
       <c r="K30" t="n">
-        <v>96.38935602050583</v>
+        <v>224.8100976910607</v>
       </c>
       <c r="L30" t="n">
-        <v>96.38935602050583</v>
+        <v>224.8100976910607</v>
       </c>
       <c r="M30" t="n">
-        <v>96.38935602050583</v>
+        <v>224.8100976910607</v>
       </c>
       <c r="N30" t="n">
         <v>224.8100976910607</v>
@@ -6579,13 +6579,13 @@
         <v>136.2666978874275</v>
       </c>
       <c r="W30" t="n">
-        <v>74.39295342449803</v>
+        <v>74.39295342449805</v>
       </c>
       <c r="X30" t="n">
-        <v>58.5068020338128</v>
+        <v>58.50680203381282</v>
       </c>
       <c r="Y30" t="n">
-        <v>43.41911346120055</v>
+        <v>43.41911346120056</v>
       </c>
     </row>
     <row r="31">
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43.41911346120055</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="C31" t="n">
-        <v>43.41911346120055</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="D31" t="n">
-        <v>43.41911346120055</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="E31" t="n">
-        <v>43.41911346120055</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="F31" t="n">
-        <v>43.41911346120055</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="G31" t="n">
-        <v>43.41911346120055</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="H31" t="n">
-        <v>43.41911346120055</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="I31" t="n">
-        <v>43.41911346120055</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="J31" t="n">
-        <v>43.41911346120055</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="K31" t="n">
         <v>54.39047542078283</v>
       </c>
       <c r="L31" t="n">
-        <v>75.72852399947044</v>
+        <v>124.2336565577681</v>
       </c>
       <c r="M31" t="n">
-        <v>163.0147148562078</v>
+        <v>208.4663979524879</v>
       </c>
       <c r="N31" t="n">
-        <v>250.3858518248359</v>
+        <v>295.8375349211159</v>
       </c>
       <c r="O31" t="n">
-        <v>315.750641688242</v>
+        <v>361.202324784522</v>
       </c>
       <c r="P31" t="n">
-        <v>315.750641688242</v>
+        <v>442.0839529735137</v>
       </c>
       <c r="Q31" t="n">
         <v>442.0839529735137</v>
@@ -6664,7 +6664,7 @@
         <v>73.73662268955241</v>
       </c>
       <c r="Y31" t="n">
-        <v>43.41911346120055</v>
+        <v>43.41911346120056</v>
       </c>
     </row>
     <row r="32">
@@ -6677,52 +6677,52 @@
         <v>1183.840412769745</v>
       </c>
       <c r="C32" t="n">
-        <v>1003.789144136167</v>
+        <v>1003.789144136166</v>
       </c>
       <c r="D32" t="n">
-        <v>834.2230905776834</v>
+        <v>834.2230905776827</v>
       </c>
       <c r="E32" t="n">
-        <v>637.8759228770898</v>
+        <v>637.8759228770891</v>
       </c>
       <c r="F32" t="n">
-        <v>417.1087271711898</v>
+        <v>417.1087271711889</v>
       </c>
       <c r="G32" t="n">
         <v>189.2054117232694</v>
       </c>
       <c r="H32" t="n">
-        <v>43.41911346120055</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="I32" t="n">
-        <v>46.03033693700408</v>
+        <v>46.03033693700402</v>
       </c>
       <c r="J32" t="n">
-        <v>87.06610616997736</v>
+        <v>273.9131025043602</v>
       </c>
       <c r="K32" t="n">
-        <v>457.6916758903876</v>
+        <v>273.9131025043602</v>
       </c>
       <c r="L32" t="n">
-        <v>737.6543251119924</v>
+        <v>553.875751725965</v>
       </c>
       <c r="M32" t="n">
-        <v>788.4068715066559</v>
+        <v>906.8622667707216</v>
       </c>
       <c r="N32" t="n">
-        <v>1291.748123962869</v>
+        <v>1410.203519226934</v>
       </c>
       <c r="O32" t="n">
-        <v>1682.670176784991</v>
+        <v>1849.77871553389</v>
       </c>
       <c r="P32" t="n">
-        <v>2048.276051554406</v>
+        <v>1849.77871553389</v>
       </c>
       <c r="Q32" t="n">
-        <v>2161.348409254238</v>
+        <v>2093.686783353016</v>
       </c>
       <c r="R32" t="n">
-        <v>2170.955673060027</v>
+        <v>2170.955673060028</v>
       </c>
       <c r="S32" t="n">
         <v>2165.072092504524</v>
@@ -6731,7 +6731,7 @@
         <v>2132.689355308053</v>
       </c>
       <c r="U32" t="n">
-        <v>2069.352251899417</v>
+        <v>2069.352251899416</v>
       </c>
       <c r="V32" t="n">
         <v>1928.141260191518</v>
@@ -6743,7 +6743,7 @@
         <v>1580.744253455837</v>
       </c>
       <c r="Y32" t="n">
-        <v>1380.79199889065</v>
+        <v>1380.791998890649</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>43.41911346120055</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="C33" t="n">
-        <v>43.41911346120055</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="D33" t="n">
-        <v>43.41911346120055</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="E33" t="n">
-        <v>43.41911346120055</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="F33" t="n">
-        <v>43.41911346120055</v>
+        <v>43.41911346120056</v>
       </c>
       <c r="G33" t="n">
-        <v>43.41911346120055</v>
+        <v>95.86593720207414</v>
       </c>
       <c r="H33" t="n">
-        <v>43.41911346120055</v>
+        <v>95.86593720207414</v>
       </c>
       <c r="I33" t="n">
-        <v>43.41911346120055</v>
+        <v>95.86593720207414</v>
       </c>
       <c r="J33" t="n">
-        <v>43.41911346120055</v>
+        <v>95.86593720207414</v>
       </c>
       <c r="K33" t="n">
-        <v>43.41911346120055</v>
+        <v>95.86593720207414</v>
       </c>
       <c r="L33" t="n">
-        <v>43.41911346120055</v>
+        <v>95.86593720207414</v>
       </c>
       <c r="M33" t="n">
-        <v>43.41911346120055</v>
+        <v>95.86593720207414</v>
       </c>
       <c r="N33" t="n">
-        <v>43.41911346120055</v>
+        <v>95.86593720207414</v>
       </c>
       <c r="O33" t="n">
-        <v>139.5336160389</v>
+        <v>207.600024695688</v>
       </c>
       <c r="P33" t="n">
-        <v>139.5336160389</v>
+        <v>207.600024695688</v>
       </c>
       <c r="Q33" t="n">
-        <v>224.8100976910607</v>
+        <v>224.8100976910611</v>
       </c>
       <c r="R33" t="n">
-        <v>224.8100976910607</v>
+        <v>224.8100976910611</v>
       </c>
       <c r="S33" t="n">
-        <v>224.8100976910607</v>
+        <v>224.8100976910611</v>
       </c>
       <c r="T33" t="n">
-        <v>216.1452475465152</v>
+        <v>216.1452475465154</v>
       </c>
       <c r="U33" t="n">
-        <v>179.8771941580893</v>
+        <v>179.8771941580896</v>
       </c>
       <c r="V33" t="n">
-        <v>136.2666978874275</v>
+        <v>136.2666978874277</v>
       </c>
       <c r="W33" t="n">
-        <v>74.39295342449803</v>
+        <v>74.39295342449816</v>
       </c>
       <c r="X33" t="n">
-        <v>58.5068020338128</v>
+        <v>58.50680203381287</v>
       </c>
       <c r="Y33" t="n">
-        <v>43.41911346120055</v>
+        <v>43.41911346120056</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.41911346120055</v>
+        <v>51.98325521980643</v>
       </c>
       <c r="C34" t="n">
-        <v>43.41911346120055</v>
+        <v>73.16706415229896</v>
       </c>
       <c r="D34" t="n">
-        <v>43.41911346120055</v>
+        <v>73.16706415229896</v>
       </c>
       <c r="E34" t="n">
-        <v>43.41911346120055</v>
+        <v>114.5091825552146</v>
       </c>
       <c r="F34" t="n">
-        <v>43.41911346120055</v>
+        <v>114.5091825552146</v>
       </c>
       <c r="G34" t="n">
-        <v>43.41911346120055</v>
+        <v>135.3658131597315</v>
       </c>
       <c r="H34" t="n">
-        <v>43.41911346120055</v>
+        <v>135.3658131597315</v>
       </c>
       <c r="I34" t="n">
-        <v>84.67099159881622</v>
+        <v>135.3658131597315</v>
       </c>
       <c r="J34" t="n">
-        <v>164.5127982723514</v>
+        <v>135.3658131597315</v>
       </c>
       <c r="K34" t="n">
-        <v>164.5127982723514</v>
+        <v>135.3658131597315</v>
       </c>
       <c r="L34" t="n">
-        <v>234.3559794093367</v>
+        <v>135.3658131597315</v>
       </c>
       <c r="M34" t="n">
-        <v>321.6421702660741</v>
+        <v>222.6520040164688</v>
       </c>
       <c r="N34" t="n">
-        <v>376.7191631101076</v>
+        <v>319.9666160564218</v>
       </c>
       <c r="O34" t="n">
-        <v>442.0839529735137</v>
+        <v>404.3107025638981</v>
       </c>
       <c r="P34" t="n">
-        <v>442.0839529735137</v>
+        <v>416.9874757420864</v>
       </c>
       <c r="Q34" t="n">
-        <v>442.0839529735137</v>
+        <v>416.9874757420864</v>
       </c>
       <c r="R34" t="n">
-        <v>442.0839529735137</v>
+        <v>442.0839529735141</v>
       </c>
       <c r="S34" t="n">
-        <v>412.0389244862269</v>
+        <v>412.0389244862272</v>
       </c>
       <c r="T34" t="n">
-        <v>373.0013298664683</v>
+        <v>373.0013298664686</v>
       </c>
       <c r="U34" t="n">
-        <v>274.7126516709305</v>
+        <v>274.7126516709307</v>
       </c>
       <c r="V34" t="n">
-        <v>209.8621351706888</v>
+        <v>209.862135170689</v>
       </c>
       <c r="W34" t="n">
-        <v>111.5204814780467</v>
+        <v>111.5204814780468</v>
       </c>
       <c r="X34" t="n">
-        <v>73.73662268955241</v>
+        <v>73.73662268955246</v>
       </c>
       <c r="Y34" t="n">
-        <v>43.41911346120055</v>
+        <v>43.41911346120056</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>980.8325780784764</v>
+        <v>980.8325780784769</v>
       </c>
       <c r="C35" t="n">
-        <v>833.1640466413695</v>
+        <v>833.1640466413697</v>
       </c>
       <c r="D35" t="n">
-        <v>695.9807302793574</v>
+        <v>695.9807302793577</v>
       </c>
       <c r="E35" t="n">
-        <v>532.0162997752351</v>
+        <v>532.0162997752353</v>
       </c>
       <c r="F35" t="n">
-        <v>343.6318412658064</v>
+        <v>343.6318412658065</v>
       </c>
       <c r="G35" t="n">
         <v>148.1112630143567</v>
@@ -6932,55 +6932,55 @@
         <v>34.70770194875913</v>
       </c>
       <c r="I35" t="n">
-        <v>69.05724615082411</v>
+        <v>69.0572461508241</v>
       </c>
       <c r="J35" t="n">
-        <v>110.0930153837974</v>
+        <v>328.6783324444417</v>
       </c>
       <c r="K35" t="n">
-        <v>512.4569058304692</v>
+        <v>525.4205822567096</v>
       </c>
       <c r="L35" t="n">
-        <v>512.4569058304692</v>
+        <v>954.9283938726039</v>
       </c>
       <c r="M35" t="n">
-        <v>594.9477729513941</v>
+        <v>1313.310113643614</v>
       </c>
       <c r="N35" t="n">
-        <v>1024.455584567288</v>
+        <v>1398.097293451509</v>
       </c>
       <c r="O35" t="n">
-        <v>1453.963396183182</v>
+        <v>1477.338943856604</v>
       </c>
       <c r="P35" t="n">
-        <v>1636.992638743956</v>
+        <v>1543.359189418922</v>
       </c>
       <c r="Q35" t="n">
-        <v>1694.039512905905</v>
+        <v>1600.406063580871</v>
       </c>
       <c r="R35" t="n">
-        <v>1735.385097437956</v>
+        <v>1709.413274014145</v>
       </c>
       <c r="S35" t="n">
-        <v>1735.385097437956</v>
+        <v>1735.385097437957</v>
       </c>
       <c r="T35" t="n">
-        <v>1735.385097437956</v>
+        <v>1735.385097437957</v>
       </c>
       <c r="U35" t="n">
         <v>1704.430731225792</v>
       </c>
       <c r="V35" t="n">
-        <v>1595.602476714364</v>
+        <v>1595.602476714365</v>
       </c>
       <c r="W35" t="n">
         <v>1464.555135861488</v>
       </c>
       <c r="X35" t="n">
-        <v>1312.970944371626</v>
+        <v>1312.970944371627</v>
       </c>
       <c r="Y35" t="n">
-        <v>1145.401427002909</v>
+        <v>1145.40142700291</v>
       </c>
     </row>
     <row r="36">
@@ -7023,10 +7023,10 @@
         <v>34.70770194875913</v>
       </c>
       <c r="M36" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="N36" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="O36" t="n">
         <v>79.31178448136257</v>
@@ -7087,37 +7087,37 @@
         <v>34.70770194875913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.23419781239679</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="I37" t="n">
-        <v>168.2243966762739</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="J37" t="n">
-        <v>168.2243966762739</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="K37" t="n">
-        <v>168.2243966762739</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="L37" t="n">
-        <v>168.2243966762739</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="M37" t="n">
-        <v>208.8051294572059</v>
+        <v>120.3017956972772</v>
       </c>
       <c r="N37" t="n">
-        <v>208.8051294572059</v>
+        <v>120.3017956972772</v>
       </c>
       <c r="O37" t="n">
-        <v>208.8051294572059</v>
+        <v>120.3017956972772</v>
       </c>
       <c r="P37" t="n">
-        <v>208.8051294572059</v>
+        <v>120.3017956972772</v>
       </c>
       <c r="Q37" t="n">
-        <v>208.8051294572059</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="R37" t="n">
-        <v>208.8051294572059</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="S37" t="n">
         <v>211.0963177630775</v>
@@ -7148,67 +7148,67 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>980.8325780784762</v>
+        <v>980.8325780784768</v>
       </c>
       <c r="C38" t="n">
-        <v>833.1640466413689</v>
+        <v>833.1640466413695</v>
       </c>
       <c r="D38" t="n">
-        <v>695.9807302793567</v>
+        <v>695.9807302793574</v>
       </c>
       <c r="E38" t="n">
-        <v>532.0162997752344</v>
+        <v>532.0162997752351</v>
       </c>
       <c r="F38" t="n">
-        <v>343.6318412658056</v>
+        <v>343.6318412658064</v>
       </c>
       <c r="G38" t="n">
-        <v>148.1112630143568</v>
+        <v>148.1112630143567</v>
       </c>
       <c r="H38" t="n">
         <v>34.70770194875913</v>
       </c>
       <c r="I38" t="n">
-        <v>69.05724615082408</v>
+        <v>69.0572461508241</v>
       </c>
       <c r="J38" t="n">
-        <v>328.6783324444417</v>
+        <v>154.5764574632746</v>
       </c>
       <c r="K38" t="n">
-        <v>731.0422228911134</v>
+        <v>223.200231126675</v>
       </c>
       <c r="L38" t="n">
-        <v>799.5662026722188</v>
+        <v>541.6037952622598</v>
       </c>
       <c r="M38" t="n">
-        <v>799.5662026722188</v>
+        <v>971.1116068781541</v>
       </c>
       <c r="N38" t="n">
-        <v>799.5662026722188</v>
+        <v>1055.89878668605</v>
       </c>
       <c r="O38" t="n">
-        <v>995.0771054410305</v>
+        <v>1485.406598301944</v>
       </c>
       <c r="P38" t="n">
-        <v>1392.421300936707</v>
+        <v>1551.426843864261</v>
       </c>
       <c r="Q38" t="n">
-        <v>1668.067689482094</v>
+        <v>1626.377887004683</v>
       </c>
       <c r="R38" t="n">
-        <v>1709.413274014144</v>
+        <v>1735.385097437957</v>
       </c>
       <c r="S38" t="n">
-        <v>1735.385097437956</v>
+        <v>1735.385097437957</v>
       </c>
       <c r="T38" t="n">
-        <v>1735.385097437956</v>
+        <v>1735.385097437957</v>
       </c>
       <c r="U38" t="n">
         <v>1704.430731225792</v>
       </c>
       <c r="V38" t="n">
-        <v>1595.602476714364</v>
+        <v>1595.602476714365</v>
       </c>
       <c r="W38" t="n">
         <v>1464.555135861488</v>
@@ -7217,7 +7217,7 @@
         <v>1312.970944371626</v>
       </c>
       <c r="Y38" t="n">
-        <v>1145.401427002909</v>
+        <v>1145.40142700291</v>
       </c>
     </row>
     <row r="39">
@@ -7251,43 +7251,43 @@
         <v>34.70770194875913</v>
       </c>
       <c r="J39" t="n">
-        <v>79.31178448136265</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="K39" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="L39" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="M39" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="N39" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="O39" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="P39" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="Q39" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="R39" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="S39" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="T39" t="n">
-        <v>79.31178448136265</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="U39" t="n">
-        <v>75.42646828940804</v>
+        <v>75.42646828940798</v>
       </c>
       <c r="V39" t="n">
-        <v>64.19870921521738</v>
+        <v>64.19870921521735</v>
       </c>
       <c r="W39" t="n">
         <v>34.70770194875913</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.70770194875913</v>
+        <v>77.0342943651803</v>
       </c>
       <c r="C40" t="n">
-        <v>34.70770194875913</v>
+        <v>77.0342943651803</v>
       </c>
       <c r="D40" t="n">
-        <v>34.70770194875913</v>
+        <v>77.0342943651803</v>
       </c>
       <c r="E40" t="n">
-        <v>34.70770194875913</v>
+        <v>77.0342943651803</v>
       </c>
       <c r="F40" t="n">
-        <v>34.70770194875913</v>
+        <v>77.0342943651803</v>
       </c>
       <c r="G40" t="n">
-        <v>34.70770194875913</v>
+        <v>129.6292456959587</v>
       </c>
       <c r="H40" t="n">
-        <v>34.70770194875913</v>
+        <v>129.6292456959587</v>
       </c>
       <c r="I40" t="n">
-        <v>34.70770194875913</v>
+        <v>129.6292456959587</v>
       </c>
       <c r="J40" t="n">
-        <v>34.70770194875913</v>
+        <v>154.2615198053882</v>
       </c>
       <c r="K40" t="n">
-        <v>34.70770194875913</v>
+        <v>154.2615198053882</v>
       </c>
       <c r="L40" t="n">
-        <v>34.70770194875913</v>
+        <v>154.2615198053882</v>
       </c>
       <c r="M40" t="n">
-        <v>62.30552207910473</v>
+        <v>154.2615198053882</v>
       </c>
       <c r="N40" t="n">
-        <v>62.30552207910473</v>
+        <v>154.2615198053882</v>
       </c>
       <c r="O40" t="n">
-        <v>178.3879293128425</v>
+        <v>154.2615198053882</v>
       </c>
       <c r="P40" t="n">
-        <v>211.0963177630776</v>
+        <v>154.2615198053882</v>
       </c>
       <c r="Q40" t="n">
-        <v>211.0963177630776</v>
+        <v>154.2615198053882</v>
       </c>
       <c r="R40" t="n">
-        <v>211.0963177630776</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="S40" t="n">
-        <v>211.0963177630776</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="T40" t="n">
-        <v>204.4414603397902</v>
+        <v>204.4414603397901</v>
       </c>
       <c r="U40" t="n">
-        <v>138.5355193407236</v>
+        <v>138.5355193407235</v>
       </c>
       <c r="V40" t="n">
         <v>106.0677400369531</v>
       </c>
       <c r="W40" t="n">
-        <v>40.10882354078224</v>
+        <v>40.10882354078221</v>
       </c>
       <c r="X40" t="n">
         <v>34.70770194875913</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.70770194875913</v>
+        <v>36.73183188031293</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>980.8325780784774</v>
+        <v>980.8325780784769</v>
       </c>
       <c r="C41" t="n">
-        <v>833.16404664137</v>
+        <v>833.1640466413697</v>
       </c>
       <c r="D41" t="n">
-        <v>695.9807302793579</v>
+        <v>695.9807302793577</v>
       </c>
       <c r="E41" t="n">
-        <v>532.0162997752357</v>
+        <v>532.0162997752352</v>
       </c>
       <c r="F41" t="n">
-        <v>343.6318412658069</v>
+        <v>343.6318412658065</v>
       </c>
       <c r="G41" t="n">
         <v>148.1112630143567</v>
@@ -7406,40 +7406,40 @@
         <v>34.70770194875913</v>
       </c>
       <c r="I41" t="n">
-        <v>34.70770194875913</v>
+        <v>69.0572461508241</v>
       </c>
       <c r="J41" t="n">
-        <v>294.3287882423768</v>
+        <v>328.6783324444417</v>
       </c>
       <c r="K41" t="n">
-        <v>366.992938281565</v>
+        <v>603.3225751379491</v>
       </c>
       <c r="L41" t="n">
-        <v>435.5169180626705</v>
+        <v>671.8465549190545</v>
       </c>
       <c r="M41" t="n">
-        <v>865.0247296785647</v>
+        <v>754.3374220399794</v>
       </c>
       <c r="N41" t="n">
-        <v>949.8119094864602</v>
+        <v>1134.434969419374</v>
       </c>
       <c r="O41" t="n">
-        <v>1379.319721102354</v>
+        <v>1213.676619824469</v>
       </c>
       <c r="P41" t="n">
-        <v>1611.020815320144</v>
+        <v>1611.020815320145</v>
       </c>
       <c r="Q41" t="n">
-        <v>1668.067689482093</v>
+        <v>1668.067689482094</v>
       </c>
       <c r="R41" t="n">
-        <v>1709.413274014144</v>
+        <v>1709.413274014145</v>
       </c>
       <c r="S41" t="n">
-        <v>1735.385097437956</v>
+        <v>1735.385097437957</v>
       </c>
       <c r="T41" t="n">
-        <v>1735.385097437956</v>
+        <v>1735.385097437957</v>
       </c>
       <c r="U41" t="n">
         <v>1704.430731225792</v>
@@ -7464,67 +7464,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="C42" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="D42" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="E42" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="F42" t="n">
-        <v>34.70770194875913</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="G42" t="n">
-        <v>56.06588338177002</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="H42" t="n">
-        <v>56.06588338177002</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="I42" t="n">
-        <v>56.06588338177002</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="J42" t="n">
-        <v>56.06588338177002</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="K42" t="n">
-        <v>56.06588338177002</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="L42" t="n">
-        <v>56.06588338177002</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="M42" t="n">
-        <v>56.06588338177002</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="N42" t="n">
-        <v>56.06588338177002</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="O42" t="n">
-        <v>56.06588338177002</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="P42" t="n">
-        <v>56.06588338177002</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.06588338177002</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="R42" t="n">
-        <v>56.06588338177002</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="S42" t="n">
-        <v>56.06588338177002</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="T42" t="n">
-        <v>79.31178448136239</v>
+        <v>79.31178448136257</v>
       </c>
       <c r="U42" t="n">
-        <v>75.42646828940786</v>
+        <v>75.42646828940798</v>
       </c>
       <c r="V42" t="n">
-        <v>64.19870921521729</v>
+        <v>64.19870921521735</v>
       </c>
       <c r="W42" t="n">
         <v>34.70770194875913</v>
@@ -7546,67 +7546,67 @@
         <v>34.70770194875913</v>
       </c>
       <c r="C43" t="n">
-        <v>34.70770194875913</v>
+        <v>87.62983160751315</v>
       </c>
       <c r="D43" t="n">
-        <v>34.70770194875913</v>
+        <v>87.62983160751315</v>
       </c>
       <c r="E43" t="n">
-        <v>34.70770194875913</v>
+        <v>87.62983160751315</v>
       </c>
       <c r="F43" t="n">
-        <v>34.70770194875913</v>
+        <v>87.62983160751315</v>
       </c>
       <c r="G43" t="n">
-        <v>34.70770194875913</v>
+        <v>140.2247829382915</v>
       </c>
       <c r="H43" t="n">
-        <v>34.70770194875913</v>
+        <v>140.2247829382915</v>
       </c>
       <c r="I43" t="n">
-        <v>34.70770194875913</v>
+        <v>140.2247829382915</v>
       </c>
       <c r="J43" t="n">
-        <v>146.2878293485558</v>
+        <v>140.2247829382915</v>
       </c>
       <c r="K43" t="n">
-        <v>146.2878293485558</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="L43" t="n">
-        <v>146.2878293485558</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="M43" t="n">
-        <v>211.0963177630772</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="N43" t="n">
-        <v>211.0963177630772</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="O43" t="n">
-        <v>211.0963177630772</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="P43" t="n">
-        <v>211.0963177630772</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="Q43" t="n">
-        <v>211.0963177630772</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="R43" t="n">
-        <v>211.0963177630772</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="S43" t="n">
-        <v>211.0963177630772</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="T43" t="n">
-        <v>204.4414603397899</v>
+        <v>204.4414603397901</v>
       </c>
       <c r="U43" t="n">
-        <v>138.5355193407233</v>
+        <v>138.5355193407235</v>
       </c>
       <c r="V43" t="n">
-        <v>106.0677400369529</v>
+        <v>106.0677400369531</v>
       </c>
       <c r="W43" t="n">
-        <v>40.10882354078215</v>
+        <v>40.10882354078221</v>
       </c>
       <c r="X43" t="n">
         <v>34.70770194875913</v>
@@ -7631,10 +7631,10 @@
         <v>695.9807302793577</v>
       </c>
       <c r="E44" t="n">
-        <v>532.0162997752351</v>
+        <v>532.0162997752353</v>
       </c>
       <c r="F44" t="n">
-        <v>343.6318412658063</v>
+        <v>343.6318412658065</v>
       </c>
       <c r="G44" t="n">
         <v>148.1112630143567</v>
@@ -7643,40 +7643,40 @@
         <v>34.70770194875913</v>
       </c>
       <c r="I44" t="n">
-        <v>69.05724615082411</v>
+        <v>69.0572461508241</v>
       </c>
       <c r="J44" t="n">
-        <v>154.5764574632746</v>
+        <v>322.7825026952976</v>
       </c>
       <c r="K44" t="n">
-        <v>504.2061589869692</v>
+        <v>725.1463931419694</v>
       </c>
       <c r="L44" t="n">
-        <v>784.168808208574</v>
+        <v>793.6703729230749</v>
       </c>
       <c r="M44" t="n">
-        <v>784.168808208574</v>
+        <v>876.1612400439998</v>
       </c>
       <c r="N44" t="n">
-        <v>784.168808208574</v>
+        <v>960.9484198518953</v>
       </c>
       <c r="O44" t="n">
-        <v>1213.676619824468</v>
+        <v>1213.676619824469</v>
       </c>
       <c r="P44" t="n">
-        <v>1611.020815320144</v>
+        <v>1611.020815320145</v>
       </c>
       <c r="Q44" t="n">
         <v>1668.067689482094</v>
       </c>
       <c r="R44" t="n">
-        <v>1709.413274014144</v>
+        <v>1709.413274014145</v>
       </c>
       <c r="S44" t="n">
-        <v>1735.385097437956</v>
+        <v>1735.385097437957</v>
       </c>
       <c r="T44" t="n">
-        <v>1735.385097437956</v>
+        <v>1735.385097437957</v>
       </c>
       <c r="U44" t="n">
         <v>1704.430731225792</v>
@@ -7722,25 +7722,25 @@
         <v>34.70770194875913</v>
       </c>
       <c r="I45" t="n">
-        <v>79.31178448136257</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="J45" t="n">
-        <v>79.31178448136257</v>
+        <v>66.93037016263662</v>
       </c>
       <c r="K45" t="n">
-        <v>79.31178448136257</v>
+        <v>66.93037016263662</v>
       </c>
       <c r="L45" t="n">
-        <v>79.31178448136257</v>
+        <v>66.93037016263662</v>
       </c>
       <c r="M45" t="n">
-        <v>79.31178448136257</v>
+        <v>66.93037016263662</v>
       </c>
       <c r="N45" t="n">
-        <v>79.31178448136257</v>
+        <v>66.93037016263662</v>
       </c>
       <c r="O45" t="n">
-        <v>79.31178448136257</v>
+        <v>66.93037016263662</v>
       </c>
       <c r="P45" t="n">
         <v>79.31178448136257</v>
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.06563263598227</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="C46" t="n">
-        <v>35.06563263598227</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="D46" t="n">
-        <v>35.06563263598227</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="E46" t="n">
-        <v>35.06563263598227</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="F46" t="n">
-        <v>35.06563263598227</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="G46" t="n">
-        <v>87.66058396676064</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="H46" t="n">
-        <v>87.66058396676064</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="I46" t="n">
-        <v>87.66058396676064</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="J46" t="n">
-        <v>87.66058396676064</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="K46" t="n">
-        <v>87.66058396676064</v>
+        <v>120.3017956972772</v>
       </c>
       <c r="L46" t="n">
-        <v>208.8051294572059</v>
+        <v>120.3017956972772</v>
       </c>
       <c r="M46" t="n">
-        <v>208.8051294572059</v>
+        <v>120.3017956972772</v>
       </c>
       <c r="N46" t="n">
-        <v>208.8051294572059</v>
+        <v>120.3017956972772</v>
       </c>
       <c r="O46" t="n">
-        <v>208.8051294572059</v>
+        <v>120.3017956972772</v>
       </c>
       <c r="P46" t="n">
-        <v>208.8051294572059</v>
+        <v>120.3017956972772</v>
       </c>
       <c r="Q46" t="n">
-        <v>208.8051294572059</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="R46" t="n">
-        <v>208.8051294572059</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="S46" t="n">
         <v>211.0963177630775</v>
@@ -8690,25 +8690,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>151.4763064618625</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>137.4691413532519</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>135.1496335886352</v>
       </c>
       <c r="O11" t="n">
-        <v>8.926611358926849</v>
+        <v>249.6438223454667</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>220.8075902863009</v>
+        <v>38.16958220407126</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8854,13 +8854,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>100.5664701794399</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>103.538292754451</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>134.4102078264584</v>
       </c>
       <c r="K14" t="n">
         <v>151.4763064618625</v>
@@ -8933,22 +8933,22 @@
         <v>151.5771083631706</v>
       </c>
       <c r="M14" t="n">
-        <v>96.06239021007376</v>
+        <v>25.28676476118545</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>43.34388051945709</v>
       </c>
       <c r="P14" t="n">
-        <v>49.75475696572853</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.7628464216246</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9085,10 +9085,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>99.93133320088077</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>98.42502178807993</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -9872,25 +9872,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>134.4102078264584</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L26" t="n">
-        <v>434.3676631324684</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>467.4940748325458</v>
       </c>
       <c r="N26" t="n">
-        <v>454.8408013884635</v>
+        <v>172.0674406930837</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P26" t="n">
-        <v>133.0614766786836</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q26" t="n">
         <v>220.8075902863009</v>
@@ -9948,34 +9948,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>98.5865270430378</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>9.05249518818637</v>
+        <v>77.45191162447885</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>59.01641885235146</v>
+        <v>234.4614537323709</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>75.87162509168579</v>
       </c>
       <c r="P27" t="n">
-        <v>79.93380909387051</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.5964794769921</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,28 +10030,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>27.1862574711851</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>111.0135169984386</v>
       </c>
       <c r="L28" t="n">
-        <v>168.9736896032166</v>
+        <v>98.42502178807993</v>
       </c>
       <c r="M28" t="n">
-        <v>185.6500473458235</v>
+        <v>100.5664701794399</v>
       </c>
       <c r="N28" t="n">
-        <v>90.43675181255537</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O28" t="n">
-        <v>169.5633330205178</v>
+        <v>103.538292754451</v>
       </c>
       <c r="P28" t="n">
         <v>140.4068258466027</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>156.2361923442009</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L29" t="n">
-        <v>434.3676631324684</v>
+        <v>151.5771083631706</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N29" t="n">
-        <v>454.8408013884635</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>396.0321885132552</v>
+        <v>227.7881811114688</v>
       </c>
       <c r="P29" t="n">
         <v>334.6706564983419</v>
@@ -10185,34 +10185,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2.30909482674004</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>98.5865270430378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>77.45191162447885</v>
       </c>
       <c r="M30" t="n">
-        <v>71.31914540423539</v>
+        <v>71.3191454042354</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>59.01641885235148</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>75.87162509168579</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.93380909387051</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>102.5964794769921</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10273,10 +10273,10 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L31" t="n">
-        <v>119.9786062109967</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>185.6500473458235</v>
       </c>
       <c r="N31" t="n">
         <v>178.6904255182403</v>
@@ -10285,7 +10285,7 @@
         <v>169.5633330205178</v>
       </c>
       <c r="P31" t="n">
-        <v>107.368049634244</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q31" t="n">
         <v>67.95667671286152</v>
@@ -10349,13 +10349,13 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1112290740114</v>
+        <v>151.4763064618625</v>
       </c>
       <c r="L32" t="n">
         <v>434.3676631324684</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N32" t="n">
         <v>454.8408013884635</v>
@@ -10364,13 +10364,13 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P32" t="n">
-        <v>334.6706564983419</v>
+        <v>92.31447632073838</v>
       </c>
       <c r="Q32" t="n">
-        <v>88.65030733752</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,22 +10422,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>98.5865270430378</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>91.5294166336067</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>77.45191162447884</v>
+        <v>77.45191162447885</v>
       </c>
       <c r="M33" t="n">
-        <v>71.31914540423539</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>59.01641885235148</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10510,19 +10510,19 @@
         <v>99.93133320088077</v>
       </c>
       <c r="L34" t="n">
-        <v>168.9736896032166</v>
+        <v>98.42502178807993</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>146.0700779176397</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>169.5633330205178</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>107.368049634244</v>
+        <v>120.1728710263534</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1112290740114</v>
+        <v>129.4126021705732</v>
       </c>
       <c r="L35" t="n">
-        <v>116.072527481344</v>
+        <v>364.6301331664533</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N35" t="n">
-        <v>348.2026583919179</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>353.8042032432315</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>118.1909060590468</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>98.5865270430378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>116.373774225047</v>
       </c>
       <c r="N36" t="n">
-        <v>59.01641885235146</v>
+        <v>59.01641885235148</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>75.87162509168579</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>79.93380909387051</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>102.5964794769921</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10744,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>99.93133320088077</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10753,7 +10753,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>90.43675181255537</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>175.8604797789567</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1112290740114</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>350.5221661565347</v>
       </c>
       <c r="N38" t="n">
-        <v>135.1496335886352</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.4436892562796</v>
+        <v>353.8042032432315</v>
       </c>
       <c r="P38" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>220.8075902863009</v>
+        <v>18.08501917017402</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,31 +10896,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>98.5865270430378</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>10.23638961127298</v>
+        <v>77.45191162447885</v>
       </c>
       <c r="M39" t="n">
-        <v>71.31914540423539</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>59.01641885235148</v>
       </c>
       <c r="O39" t="n">
-        <v>75.87162509168577</v>
+        <v>75.87162509168579</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>102.5964794769921</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>99.93133320088077</v>
@@ -10990,16 +10990,16 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>90.43675181255537</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>140.4068258466027</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>4.081188258371355</v>
+        <v>208.1014838687949</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>350.5221661565346</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O41" t="n">
-        <v>353.8042032432314</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>334.6706564983419</v>
@@ -11133,31 +11133,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>10.53077703452832</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>98.5865270430378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L42" t="n">
-        <v>77.45191162447884</v>
+        <v>77.45191162447885</v>
       </c>
       <c r="M42" t="n">
-        <v>71.31914540423539</v>
+        <v>71.3191454042354</v>
       </c>
       <c r="N42" t="n">
-        <v>59.01641885235146</v>
+        <v>59.01641885235148</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>75.87162509168579</v>
       </c>
       <c r="P42" t="n">
-        <v>79.93380909387051</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>102.5964794769921</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11221,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>98.42502178807993</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -11236,7 +11236,7 @@
         <v>107.368049634244</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.9050961939627</v>
       </c>
       <c r="K44" t="n">
-        <v>283.8443715760546</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L44" t="n">
-        <v>434.3676631324684</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>10.21603568250093</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>353.8042032432314</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P44" t="n">
         <v>334.6706564983419</v>
@@ -11370,22 +11370,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>71.31914540423539</v>
+        <v>71.3191454042354</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>59.01641885235148</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>101.8125410423885</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11461,19 +11461,19 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>100.5664701794399</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>90.43675181255537</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>107.368049634244</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.52382425986768</v>
+        <v>177.4164681653855</v>
       </c>
       <c r="C11" t="n">
         <v>160.6851538529331</v>
       </c>
       <c r="D11" t="n">
-        <v>150.3047909285889</v>
+        <v>41.412147023071</v>
       </c>
       <c r="E11" t="n">
-        <v>176.8180939292779</v>
+        <v>95.3987609074947</v>
       </c>
       <c r="F11" t="n">
-        <v>105.0812809025513</v>
+        <v>200.9939216545313</v>
       </c>
       <c r="G11" t="n">
-        <v>99.16603629361391</v>
+        <v>99.16603629361389</v>
       </c>
       <c r="H11" t="n">
-        <v>126.7628331851385</v>
+        <v>17.87018927962062</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>14.49330773019688</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>45.13813028023972</v>
+        <v>45.13813028023969</v>
       </c>
       <c r="V11" t="n">
         <v>122.2332796965098</v>
       </c>
       <c r="W11" t="n">
-        <v>144.2301751745451</v>
+        <v>144.230175174545</v>
       </c>
       <c r="X11" t="n">
-        <v>164.5616573051599</v>
+        <v>164.5616573051598</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.49448601970845</v>
+        <v>180.3871299252262</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>81.50382741340545</v>
+        <v>177.4164681653855</v>
       </c>
       <c r="C14" t="n">
         <v>160.6851538529331</v>
       </c>
       <c r="D14" t="n">
-        <v>150.3047909285889</v>
+        <v>41.41214702307099</v>
       </c>
       <c r="E14" t="n">
-        <v>176.8180939292779</v>
+        <v>67.92545002376006</v>
       </c>
       <c r="F14" t="n">
         <v>200.9939216545313</v>
       </c>
       <c r="G14" t="n">
-        <v>99.1660362936139</v>
+        <v>208.0586801991317</v>
       </c>
       <c r="H14" t="n">
-        <v>17.87018927962065</v>
+        <v>126.7628331851385</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>14.49330773019688</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>45.13813028023972</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>122.2332796965098</v>
       </c>
       <c r="W14" t="n">
-        <v>35.33753126902721</v>
+        <v>35.33753126902718</v>
       </c>
       <c r="X14" t="n">
-        <v>164.5616573051599</v>
+        <v>128.2804545636163</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.3871299252263</v>
+        <v>180.3871299252262</v>
       </c>
     </row>
     <row r="15">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>203039.0944389351</v>
+        <v>203039.0944389352</v>
       </c>
       <c r="C2" t="n">
         <v>203039.0944389352</v>
       </c>
       <c r="D2" t="n">
-        <v>203039.0944389352</v>
+        <v>203039.0944389351</v>
       </c>
       <c r="E2" t="n">
-        <v>174634.9404675234</v>
+        <v>174634.9404675233</v>
       </c>
       <c r="F2" t="n">
         <v>174634.9404675234</v>
@@ -26335,25 +26335,25 @@
         <v>203479.8521537341</v>
       </c>
       <c r="J2" t="n">
-        <v>203479.8521537344</v>
+        <v>203479.8521537343</v>
       </c>
       <c r="K2" t="n">
         <v>203479.8521537342</v>
       </c>
       <c r="L2" t="n">
+        <v>203479.8521537342</v>
+      </c>
+      <c r="M2" t="n">
+        <v>203479.8521537342</v>
+      </c>
+      <c r="N2" t="n">
+        <v>203479.8521537342</v>
+      </c>
+      <c r="O2" t="n">
         <v>203479.8521537343</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>203479.8521537343</v>
-      </c>
-      <c r="N2" t="n">
-        <v>203479.8521537341</v>
-      </c>
-      <c r="O2" t="n">
-        <v>203479.8521537342</v>
-      </c>
-      <c r="P2" t="n">
-        <v>203479.8521537342</v>
       </c>
     </row>
     <row r="3">
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101410.2665481108</v>
+        <v>101410.2665481107</v>
       </c>
       <c r="M3" t="n">
-        <v>25647.12785960521</v>
+        <v>25647.12785960526</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>49577.2052372492</v>
+        <v>49577.20523724913</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26457,7 +26457,7 @@
         <v>426936.3852869387</v>
       </c>
       <c r="P4" t="n">
-        <v>426936.3852869387</v>
+        <v>426936.3852869388</v>
       </c>
     </row>
     <row r="5">
@@ -26497,7 +26497,7 @@
         <v>51555.694944206</v>
       </c>
       <c r="L5" t="n">
-        <v>51555.694944206</v>
+        <v>51555.69494420599</v>
       </c>
       <c r="M5" t="n">
         <v>47630.18268478695</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-294140.6261967565</v>
+        <v>-294145.0337739044</v>
       </c>
       <c r="C6" t="n">
-        <v>-294140.6261967564</v>
+        <v>-294145.0337739044</v>
       </c>
       <c r="D6" t="n">
-        <v>-294140.6261967564</v>
+        <v>-294145.0337739045</v>
       </c>
       <c r="E6" t="n">
-        <v>-506302.0111466951</v>
+        <v>-506590.4602635572</v>
       </c>
       <c r="F6" t="n">
-        <v>-209596.5939851021</v>
+        <v>-209885.0431019644</v>
       </c>
       <c r="G6" t="n">
-        <v>-357202.6866237741</v>
+        <v>-357202.686623774</v>
       </c>
       <c r="H6" t="n">
-        <v>-255792.4200756632</v>
+        <v>-255792.4200756633</v>
       </c>
       <c r="I6" t="n">
         <v>-255792.4200756632</v>
@@ -26546,22 +26546,22 @@
         <v>-441342.2335940914</v>
       </c>
       <c r="K6" t="n">
-        <v>-278251.7537483282</v>
+        <v>-278251.7537483283</v>
       </c>
       <c r="L6" t="n">
         <v>-379662.0202964389</v>
       </c>
       <c r="M6" t="n">
-        <v>-296733.8436775966</v>
+        <v>-296733.8436775968</v>
       </c>
       <c r="N6" t="n">
-        <v>-271086.7158179916</v>
+        <v>-271086.7158179915</v>
       </c>
       <c r="O6" t="n">
-        <v>-320663.9210552407</v>
+        <v>-320663.9210552406</v>
       </c>
       <c r="P6" t="n">
-        <v>-271086.7158179915</v>
+        <v>-271086.7158179914</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="F2" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="G2" t="n">
         <v>333.062775011148</v>
@@ -26713,7 +26713,7 @@
         <v>188.7343397316999</v>
       </c>
       <c r="L2" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="M2" t="n">
         <v>220.7932495562064</v>
@@ -26722,7 +26722,7 @@
         <v>220.7932495562064</v>
       </c>
       <c r="O2" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="P2" t="n">
         <v>220.7932495562064</v>
@@ -26814,10 +26814,10 @@
         <v>542.738918265007</v>
       </c>
       <c r="K4" t="n">
-        <v>542.7389182650069</v>
+        <v>542.738918265007</v>
       </c>
       <c r="L4" t="n">
-        <v>542.7389182650069</v>
+        <v>542.738918265007</v>
       </c>
       <c r="M4" t="n">
         <v>433.8462743594891</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>126.7628331851385</v>
+        <v>126.7628331851384</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>61.97150654656144</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>126.7628331851384</v>
+      </c>
+      <c r="M2" t="n">
+        <v>32.05890982450657</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>61.97150654656141</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>126.7628331851385</v>
-      </c>
-      <c r="M2" t="n">
-        <v>32.05890982450651</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61.9715065465615</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.7628331851385</v>
+        <v>126.7628331851384</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.97150654656141</v>
+        <v>61.97150654656144</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="C11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="D11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="E11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="F11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="G11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="H11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="I11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="J11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="K11" t="n">
-        <v>206.2999418260095</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>206.2999418260095</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.48398141370505</v>
+        <v>140.4276462579493</v>
       </c>
       <c r="R11" t="n">
-        <v>179.0300328571651</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="S11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="T11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="U11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="V11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="W11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="X11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="Y11" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
     </row>
     <row r="12">
@@ -28193,19 +28193,19 @@
         <v>98.5865270430378</v>
       </c>
       <c r="K12" t="n">
-        <v>91.5294166336067</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L12" t="n">
-        <v>77.45191162447884</v>
+        <v>77.45191162447885</v>
       </c>
       <c r="M12" t="n">
-        <v>71.31914540423539</v>
+        <v>71.3191454042354</v>
       </c>
       <c r="N12" t="n">
-        <v>59.01641885235146</v>
+        <v>59.01641885235148</v>
       </c>
       <c r="O12" t="n">
-        <v>75.87162509168577</v>
+        <v>75.87162509168579</v>
       </c>
       <c r="P12" t="n">
         <v>169.3511796661264</v>
@@ -28223,13 +28223,13 @@
         <v>197.3125413748</v>
       </c>
       <c r="U12" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="V12" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="W12" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -28245,49 +28245,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>180.0836914906838</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="C13" t="n">
-        <v>206.2999418260095</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D13" t="n">
-        <v>206.2999418260095</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>206.2999418260095</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>206.2999418260095</v>
+        <v>167.6670360907737</v>
       </c>
       <c r="H13" t="n">
-        <v>206.2999418260095</v>
+        <v>159.6553749464714</v>
       </c>
       <c r="I13" t="n">
         <v>147.0657759563305</v>
       </c>
       <c r="J13" t="n">
-        <v>73.10435918684017</v>
+        <v>108.0860501624724</v>
       </c>
       <c r="K13" t="n">
-        <v>99.93133320088077</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="L13" t="n">
-        <v>133.9848368567137</v>
+        <v>144.1442429417698</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>100.5664701794399</v>
       </c>
       <c r="N13" t="n">
         <v>90.43675181255537</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>103.538292754451</v>
       </c>
       <c r="P13" t="n">
-        <v>107.368049634244</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="Q13" t="n">
         <v>129.0816111059031</v>
@@ -28296,25 +28296,25 @@
         <v>163.3843627302577</v>
       </c>
       <c r="S13" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="T13" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="U13" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="V13" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="W13" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="X13" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
     </row>
     <row r="14">
@@ -28324,31 +28324,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="C14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="D14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="E14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="F14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="G14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="H14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="I14" t="n">
-        <v>186.0967402611913</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="J14" t="n">
-        <v>206.2999418260095</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28357,43 +28357,43 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>41.40675114317814</v>
+        <v>140.4276462579491</v>
       </c>
       <c r="N14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="O14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="P14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="Q14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="R14" t="n">
-        <v>179.0300328571651</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="S14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="T14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="U14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="V14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="W14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="X14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="Y14" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>206.2999418260095</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
         <v>171.025583927401</v>
@@ -28418,7 +28418,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>184.247304451045</v>
+        <v>135.7577500944538</v>
       </c>
       <c r="H15" t="n">
         <v>107.8987297172384</v>
@@ -28430,22 +28430,22 @@
         <v>98.5865270430378</v>
       </c>
       <c r="K15" t="n">
-        <v>91.5294166336067</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L15" t="n">
-        <v>77.45191162447884</v>
+        <v>77.45191162447885</v>
       </c>
       <c r="M15" t="n">
-        <v>71.31914540423539</v>
+        <v>71.3191454042354</v>
       </c>
       <c r="N15" t="n">
-        <v>59.01641885235146</v>
+        <v>59.01641885235148</v>
       </c>
       <c r="O15" t="n">
-        <v>75.87162509168577</v>
+        <v>75.87162509168579</v>
       </c>
       <c r="P15" t="n">
-        <v>79.93380909387051</v>
+        <v>169.3511796661264</v>
       </c>
       <c r="Q15" t="n">
         <v>102.5964794769921</v>
@@ -28460,13 +28460,13 @@
         <v>197.3125413748</v>
       </c>
       <c r="U15" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="V15" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="W15" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>191.2346306333509</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
         <v>167.3365529312023</v>
@@ -28491,34 +28491,34 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>206.2999418260095</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="G16" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="H16" t="n">
         <v>159.6553749464714</v>
       </c>
       <c r="I16" t="n">
-        <v>206.2999418260095</v>
+        <v>147.0657759563305</v>
       </c>
       <c r="J16" t="n">
         <v>108.0860501624724</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>99.93133320088077</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>98.42502178807993</v>
       </c>
       <c r="M16" t="n">
         <v>100.5664701794399</v>
       </c>
       <c r="N16" t="n">
-        <v>199.3293957180732</v>
+        <v>191.6805672469179</v>
       </c>
       <c r="O16" t="n">
         <v>103.538292754451</v>
@@ -28527,31 +28527,31 @@
         <v>107.368049634244</v>
       </c>
       <c r="Q16" t="n">
-        <v>129.0816111059031</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="R16" t="n">
         <v>163.3843627302577</v>
       </c>
       <c r="S16" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="T16" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="U16" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="V16" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="W16" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="X16" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
       <c r="Y16" t="n">
-        <v>206.2999418260095</v>
+        <v>206.2999418260096</v>
       </c>
     </row>
     <row r="17">
@@ -28585,19 +28585,19 @@
         <v>186.0967402611913</v>
       </c>
       <c r="J17" t="n">
-        <v>134.4102078264584</v>
+        <v>243.3028517319762</v>
       </c>
       <c r="K17" t="n">
         <v>151.4763064618625</v>
       </c>
       <c r="L17" t="n">
-        <v>260.4697522686884</v>
+        <v>151.5771083631706</v>
       </c>
       <c r="M17" t="n">
         <v>137.4691413532519</v>
       </c>
       <c r="N17" t="n">
-        <v>158.0178718051929</v>
+        <v>135.1496335886352</v>
       </c>
       <c r="O17" t="n">
         <v>140.7511784399488</v>
@@ -28612,16 +28612,16 @@
         <v>179.0300328571651</v>
       </c>
       <c r="S17" t="n">
-        <v>194.5590844816488</v>
+        <v>303.4517283871666</v>
       </c>
       <c r="T17" t="n">
-        <v>329.6858934617242</v>
+        <v>239.1319342841354</v>
       </c>
       <c r="U17" t="n">
         <v>333.062775011148</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>333.062775011148</v>
       </c>
       <c r="W17" t="n">
         <v>333.062775011148</v>
@@ -28667,19 +28667,19 @@
         <v>98.5865270430378</v>
       </c>
       <c r="K18" t="n">
-        <v>91.5294166336067</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L18" t="n">
-        <v>77.45191162447884</v>
+        <v>77.45191162447885</v>
       </c>
       <c r="M18" t="n">
-        <v>71.31914540423539</v>
+        <v>71.3191454042354</v>
       </c>
       <c r="N18" t="n">
-        <v>59.01641885235146</v>
+        <v>59.01641885235148</v>
       </c>
       <c r="O18" t="n">
-        <v>75.87162509168577</v>
+        <v>75.87162509168579</v>
       </c>
       <c r="P18" t="n">
         <v>79.93380909387051</v>
@@ -28822,13 +28822,13 @@
         <v>186.0967402611913</v>
       </c>
       <c r="J20" t="n">
-        <v>134.4102078264584</v>
+        <v>243.3028517319762</v>
       </c>
       <c r="K20" t="n">
         <v>151.4763064618625</v>
       </c>
       <c r="L20" t="n">
-        <v>169.9157930910996</v>
+        <v>151.5771083631706</v>
       </c>
       <c r="M20" t="n">
         <v>137.4691413532519</v>
@@ -28843,22 +28843,22 @@
         <v>154.1061328265928</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.1701443421163</v>
+        <v>267.6630854635727</v>
       </c>
       <c r="R20" t="n">
         <v>287.9226767626828</v>
       </c>
       <c r="S20" t="n">
-        <v>303.4517283871666</v>
+        <v>194.5590844816488</v>
       </c>
       <c r="T20" t="n">
         <v>329.6858934617242</v>
       </c>
       <c r="U20" t="n">
-        <v>333.062775011148</v>
+        <v>251.4380721062493</v>
       </c>
       <c r="V20" t="n">
-        <v>333.062775011148</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
         <v>333.062775011148</v>
@@ -28904,19 +28904,19 @@
         <v>98.5865270430378</v>
       </c>
       <c r="K21" t="n">
-        <v>91.5294166336067</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L21" t="n">
-        <v>77.45191162447884</v>
+        <v>77.45191162447885</v>
       </c>
       <c r="M21" t="n">
-        <v>71.31914540423539</v>
+        <v>71.3191454042354</v>
       </c>
       <c r="N21" t="n">
-        <v>59.01641885235146</v>
+        <v>59.01641885235148</v>
       </c>
       <c r="O21" t="n">
-        <v>75.87162509168577</v>
+        <v>75.87162509168579</v>
       </c>
       <c r="P21" t="n">
         <v>79.93380909387051</v>
@@ -29062,22 +29062,22 @@
         <v>134.4102078264584</v>
       </c>
       <c r="K23" t="n">
-        <v>169.8149911897915</v>
+        <v>151.4763064618625</v>
       </c>
       <c r="L23" t="n">
         <v>151.5771083631706</v>
       </c>
       <c r="M23" t="n">
-        <v>246.3617852587697</v>
+        <v>137.4691413532519</v>
       </c>
       <c r="N23" t="n">
-        <v>135.1496335886352</v>
+        <v>244.0422774941529</v>
       </c>
       <c r="O23" t="n">
-        <v>140.7511784399488</v>
+        <v>249.6438223454666</v>
       </c>
       <c r="P23" t="n">
-        <v>154.1061328265928</v>
+        <v>176.9743710431504</v>
       </c>
       <c r="Q23" t="n">
         <v>163.1701443421163</v>
@@ -29086,7 +29086,7 @@
         <v>179.0300328571651</v>
       </c>
       <c r="S23" t="n">
-        <v>303.4517283871666</v>
+        <v>194.5590844816488</v>
       </c>
       <c r="T23" t="n">
         <v>329.6858934617242</v>
@@ -29095,7 +29095,7 @@
         <v>333.062775011148</v>
       </c>
       <c r="V23" t="n">
-        <v>333.062775011148</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
         <v>333.062775011148</v>
@@ -29141,19 +29141,19 @@
         <v>98.5865270430378</v>
       </c>
       <c r="K24" t="n">
-        <v>91.5294166336067</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L24" t="n">
-        <v>77.45191162447884</v>
+        <v>77.45191162447885</v>
       </c>
       <c r="M24" t="n">
-        <v>71.31914540423539</v>
+        <v>71.3191454042354</v>
       </c>
       <c r="N24" t="n">
-        <v>59.01641885235146</v>
+        <v>59.01641885235148</v>
       </c>
       <c r="O24" t="n">
-        <v>75.87162509168577</v>
+        <v>75.87162509168579</v>
       </c>
       <c r="P24" t="n">
         <v>79.93380909387051</v>
@@ -29296,7 +29296,7 @@
         <v>188.7343397316999</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="K26" t="n">
         <v>188.7343397316999</v>
@@ -29305,10 +29305,10 @@
         <v>188.7343397316999</v>
       </c>
       <c r="M26" t="n">
-        <v>188.7343397316999</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>188.7343397316999</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>188.7343397316999</v>
@@ -29317,10 +29317,10 @@
         <v>188.7343397316999</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="R26" t="n">
-        <v>110.6849561892633</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="S26" t="n">
         <v>188.7343397316999</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>173.1503071241236</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
@@ -29372,34 +29372,34 @@
         <v>107.8987297172384</v>
       </c>
       <c r="I27" t="n">
-        <v>153.70259753072</v>
+        <v>77.36379842985802</v>
       </c>
       <c r="J27" t="n">
-        <v>98.5865270430378</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>91.5294166336067</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L27" t="n">
-        <v>68.39941643629247</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>188.7343397316999</v>
+        <v>71.3191454042354</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>75.87162509168577</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>79.93380909387051</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>102.5964794769921</v>
       </c>
       <c r="R27" t="n">
-        <v>78.21316692998973</v>
+        <v>125.5557035337634</v>
       </c>
       <c r="S27" t="n">
         <v>164.0308087813356</v>
@@ -29430,52 +29430,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="C28" t="n">
-        <v>167.3365529312023</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="E28" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="G28" t="n">
-        <v>167.6670360907737</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="H28" t="n">
+        <v>159.6553749464714</v>
+      </c>
+      <c r="I28" t="n">
+        <v>156.3536637636996</v>
+      </c>
+      <c r="J28" t="n">
+        <v>108.0860501624724</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>188.7343397316999</v>
-      </c>
-      <c r="I28" t="n">
-        <v>147.0657759563305</v>
-      </c>
-      <c r="J28" t="n">
-        <v>188.7343397316999</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>129.0816111059031</v>
       </c>
       <c r="R28" t="n">
         <v>163.3843627302577</v>
@@ -29533,7 +29533,7 @@
         <v>188.7343397316999</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="K29" t="n">
         <v>188.7343397316999</v>
@@ -29548,7 +29548,7 @@
         <v>188.7343397316999</v>
       </c>
       <c r="O29" t="n">
-        <v>36.76106171358951</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="P29" t="n">
         <v>188.7343397316999</v>
@@ -29557,7 +29557,7 @@
         <v>188.7343397316999</v>
       </c>
       <c r="R29" t="n">
-        <v>110.6849561892633</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="S29" t="n">
         <v>188.7343397316999</v>
@@ -29591,52 +29591,52 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>180.7212808542221</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="E30" t="n">
         <v>188.7343397316999</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7577500944538</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="H30" t="n">
         <v>107.8987297172384</v>
       </c>
       <c r="I30" t="n">
-        <v>108.6989649543101</v>
+        <v>85.58548063764631</v>
       </c>
       <c r="J30" t="n">
-        <v>98.5865270430378</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>91.5294166336067</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>77.45191162447884</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>188.7343397316999</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>75.87162509168577</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>79.93380909387051</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.5964794769921</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>125.5557035337634</v>
+        <v>78.21316692998973</v>
       </c>
       <c r="S30" t="n">
         <v>164.0308087813356</v>
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>188.7343397316999</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29709,10 +29709,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>48.65983811995618</v>
       </c>
       <c r="Q31" t="n">
-        <v>188.7343397316999</v>
+        <v>61.12493439304156</v>
       </c>
       <c r="R31" t="n">
         <v>163.3843627302577</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="C32" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="D32" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="E32" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="F32" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="G32" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="H32" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="I32" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="K32" t="n">
-        <v>188.7343397316999</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>188.7343397316999</v>
+        <v>26.52710191945016</v>
       </c>
       <c r="N32" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="O32" t="n">
-        <v>139.5897503530798</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="P32" t="n">
-        <v>188.7343397316999</v>
+        <v>61.79165650585441</v>
       </c>
       <c r="Q32" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="R32" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="S32" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="T32" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="U32" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="V32" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="W32" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="X32" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="Y32" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
     </row>
     <row r="33">
@@ -29840,61 +29840,61 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.7577500944538</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="H33" t="n">
         <v>107.8987297172384</v>
       </c>
       <c r="I33" t="n">
-        <v>87.89457546438635</v>
+        <v>77.36379842985802</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>98.5865270430378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>71.3191454042354</v>
       </c>
       <c r="N33" t="n">
-        <v>59.01641885235146</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>172.9569812307761</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>188.7343397316999</v>
+        <v>119.9803915935305</v>
       </c>
       <c r="R33" t="n">
-        <v>78.21316692998973</v>
+        <v>125.5557035337634</v>
       </c>
       <c r="S33" t="n">
         <v>164.0308087813356</v>
       </c>
       <c r="T33" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="U33" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="V33" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="W33" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="X33" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="Y33" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
     </row>
     <row r="34">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>180.0836914906838</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="C34" t="n">
-        <v>167.3365529312023</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="D34" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="F34" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.6670360907737</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="H34" t="n">
         <v>159.6553749464714</v>
       </c>
       <c r="I34" t="n">
-        <v>188.7343397316999</v>
+        <v>147.0657759563305</v>
       </c>
       <c r="J34" t="n">
-        <v>188.7343397316999</v>
+        <v>108.0860501624724</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,13 +29937,13 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -29952,28 +29952,28 @@
         <v>129.0816111059031</v>
       </c>
       <c r="R34" t="n">
-        <v>163.3843627302577</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="S34" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="T34" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="U34" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="V34" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="W34" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="X34" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.7343397316999</v>
+        <v>188.7343397316998</v>
       </c>
     </row>
     <row r="35">
@@ -30007,16 +30007,16 @@
         <v>220.7932495562064</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="K35" t="n">
         <v>220.7932495562064</v>
       </c>
       <c r="L35" t="n">
-        <v>35.50458088182662</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="M35" t="n">
-        <v>220.7932495562064</v>
+        <v>31.9768036631403</v>
       </c>
       <c r="N35" t="n">
         <v>220.7932495562064</v>
@@ -30034,7 +30034,7 @@
         <v>220.7932495562064</v>
       </c>
       <c r="S35" t="n">
-        <v>194.5590844816488</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="T35" t="n">
         <v>220.7932495562064</v>
@@ -30086,28 +30086,28 @@
         <v>87.89457546438635</v>
       </c>
       <c r="J36" t="n">
-        <v>98.5865270430378</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>91.5294166336067</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>77.45191162447884</v>
+        <v>77.45191162447885</v>
       </c>
       <c r="M36" t="n">
-        <v>71.31914540423539</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>120.9262539124973</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>79.93380909387051</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.5964794769921</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>125.5557035337634</v>
@@ -30159,25 +30159,25 @@
         <v>167.6670360907737</v>
       </c>
       <c r="H37" t="n">
-        <v>220.7932495562064</v>
+        <v>159.6553749464714</v>
       </c>
       <c r="I37" t="n">
-        <v>220.7932495562064</v>
+        <v>147.0657759563305</v>
       </c>
       <c r="J37" t="n">
         <v>108.0860501624724</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>99.93133320088077</v>
       </c>
       <c r="L37" t="n">
         <v>98.42502178807993</v>
       </c>
       <c r="M37" t="n">
-        <v>141.5571093520985</v>
+        <v>187.0251507334985</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>90.43675181255537</v>
       </c>
       <c r="O37" t="n">
         <v>103.538292754451</v>
@@ -30186,13 +30186,13 @@
         <v>107.368049634244</v>
       </c>
       <c r="Q37" t="n">
-        <v>129.0816111059031</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="R37" t="n">
         <v>163.3843627302577</v>
       </c>
       <c r="S37" t="n">
-        <v>220.7932495562064</v>
+        <v>218.4789179341138</v>
       </c>
       <c r="T37" t="n">
         <v>220.7932495562064</v>
@@ -30250,13 +30250,13 @@
         <v>220.7932495562064</v>
       </c>
       <c r="L38" t="n">
+        <v>38.82920698381818</v>
+      </c>
+      <c r="M38" t="n">
         <v>220.7932495562064</v>
       </c>
-      <c r="M38" t="n">
-        <v>137.4691413532519</v>
-      </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="O38" t="n">
         <v>220.7932495562064</v>
@@ -30271,7 +30271,7 @@
         <v>220.7932495562064</v>
       </c>
       <c r="S38" t="n">
-        <v>220.7932495562064</v>
+        <v>194.5590844816488</v>
       </c>
       <c r="T38" t="n">
         <v>220.7932495562064</v>
@@ -30320,22 +30320,22 @@
         <v>107.8987297172384</v>
       </c>
       <c r="I39" t="n">
-        <v>87.89457546438635</v>
+        <v>77.36379842985802</v>
       </c>
       <c r="J39" t="n">
-        <v>143.6411558638494</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>91.5294166336067</v>
+        <v>136.5840454544183</v>
       </c>
       <c r="L39" t="n">
-        <v>67.21552201320586</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>71.3191454042354</v>
       </c>
       <c r="N39" t="n">
-        <v>59.01641885235146</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>79.93380909387051</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.5964794769921</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>125.5557035337634</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.0836914906838</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -30393,7 +30393,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.6670360907737</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="H40" t="n">
         <v>159.6553749464714</v>
@@ -30402,7 +30402,7 @@
         <v>147.0657759563305</v>
       </c>
       <c r="J40" t="n">
-        <v>73.10435918684017</v>
+        <v>132.9671351214922</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30411,22 +30411,22 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>128.443056169688</v>
+        <v>100.5664701794399</v>
       </c>
       <c r="N40" t="n">
-        <v>90.43675181255537</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
+        <v>103.538292754451</v>
+      </c>
+      <c r="P40" t="n">
+        <v>107.368049634244</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>129.0816111059031</v>
+      </c>
+      <c r="R40" t="n">
         <v>220.7932495562064</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>61.12493439304156</v>
-      </c>
-      <c r="R40" t="n">
-        <v>163.3843627302577</v>
       </c>
       <c r="S40" t="n">
         <v>218.4789179341138</v>
@@ -30447,7 +30447,7 @@
         <v>220.7932495562064</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.7486738677682</v>
+        <v>220.7932495562064</v>
       </c>
     </row>
     <row r="41">
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="C41" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="D41" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="E41" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="F41" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="G41" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="H41" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="I41" t="n">
-        <v>186.0967402611913</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="J41" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="K41" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="L41" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="M41" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="N41" t="n">
-        <v>220.7932495562065</v>
+        <v>64.24574874501427</v>
       </c>
       <c r="O41" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="P41" t="n">
-        <v>53.47698563914943</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="Q41" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="R41" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="S41" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="T41" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="U41" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="V41" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="W41" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="X41" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="Y41" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>210.4267544311564</v>
       </c>
       <c r="C42" t="n">
         <v>171.025583927401</v>
@@ -30551,19 +30551,19 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>157.3316707338587</v>
+        <v>135.7577500944538</v>
       </c>
       <c r="H42" t="n">
         <v>107.8987297172384</v>
       </c>
       <c r="I42" t="n">
-        <v>77.36379842985802</v>
+        <v>87.89457546438635</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>91.5294166336067</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -30575,13 +30575,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>75.87162509168577</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>79.93380909387051</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.5964794769921</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>78.21316692998973</v>
@@ -30590,16 +30590,16 @@
         <v>164.0308087813356</v>
       </c>
       <c r="T42" t="n">
-        <v>220.7932495562065</v>
+        <v>197.3125413748</v>
       </c>
       <c r="U42" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="V42" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="W42" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="X42" t="n">
         <v>204.4616296084783</v>
@@ -30618,7 +30618,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3365529312023</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="D43" t="n">
         <v>149.0055665145194</v>
@@ -30630,7 +30630,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.6670360907737</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="H43" t="n">
         <v>159.6553749464714</v>
@@ -30639,16 +30639,16 @@
         <v>147.0657759563305</v>
       </c>
       <c r="J43" t="n">
-        <v>220.7932495562065</v>
+        <v>108.0860501624724</v>
       </c>
       <c r="K43" t="n">
-        <v>99.93133320088077</v>
+        <v>171.518742114806</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>98.42502178807993</v>
       </c>
       <c r="M43" t="n">
-        <v>166.0295897900676</v>
+        <v>100.5664701794399</v>
       </c>
       <c r="N43" t="n">
         <v>90.43675181255537</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.12493439304156</v>
+        <v>129.0816111059031</v>
       </c>
       <c r="R43" t="n">
         <v>163.3843627302577</v>
@@ -30669,19 +30669,19 @@
         <v>218.4789179341138</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="U43" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="V43" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="W43" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="X43" t="n">
-        <v>220.7932495562065</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -30724,16 +30724,16 @@
         <v>220.7932495562064</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="M44" t="n">
-        <v>127.253105670751</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="N44" t="n">
-        <v>135.1496335886352</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="O44" t="n">
-        <v>220.7932495562064</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>220.7932495562064</v>
@@ -30794,34 +30794,34 @@
         <v>107.8987297172384</v>
       </c>
       <c r="I45" t="n">
-        <v>132.9492042851979</v>
+        <v>77.36379842985802</v>
       </c>
       <c r="J45" t="n">
-        <v>98.5865270430378</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>91.5294166336067</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>77.45191162447884</v>
+        <v>77.45191162447885</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>59.01641885235146</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>75.87162509168577</v>
+        <v>75.87162509168579</v>
       </c>
       <c r="P45" t="n">
-        <v>79.93380909387051</v>
+        <v>92.44028820369469</v>
       </c>
       <c r="Q45" t="n">
-        <v>102.5964794769921</v>
+        <v>0.7839384346035966</v>
       </c>
       <c r="R45" t="n">
-        <v>125.5557035337634</v>
+        <v>78.21316692998973</v>
       </c>
       <c r="S45" t="n">
         <v>164.0308087813356</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.445237639394</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
@@ -30867,7 +30867,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>220.7932495562064</v>
+        <v>167.6670360907737</v>
       </c>
       <c r="H46" t="n">
         <v>159.6553749464714</v>
@@ -30879,31 +30879,31 @@
         <v>108.0860501624724</v>
       </c>
       <c r="K46" t="n">
-        <v>99.93133320088077</v>
+        <v>186.3900137549394</v>
       </c>
       <c r="L46" t="n">
-        <v>220.7932495562064</v>
+        <v>98.42502178807993</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>100.5664701794399</v>
       </c>
       <c r="N46" t="n">
-        <v>90.43675181255537</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>103.538292754451</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>107.368049634244</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.12493439304156</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="R46" t="n">
         <v>163.3843627302577</v>
       </c>
       <c r="S46" t="n">
-        <v>220.7932495562064</v>
+        <v>218.4789179341138</v>
       </c>
       <c r="T46" t="n">
         <v>220.7932495562064</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4961433786896496</v>
+        <v>0.4961433786896495</v>
       </c>
       <c r="H11" t="n">
-        <v>5.081128377005376</v>
+        <v>5.081128377005374</v>
       </c>
       <c r="I11" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J11" t="n">
-        <v>42.10954908706069</v>
+        <v>42.10954908706068</v>
       </c>
       <c r="K11" t="n">
-        <v>63.11129830699357</v>
+        <v>63.11129830699355</v>
       </c>
       <c r="L11" t="n">
-        <v>78.29514623256695</v>
+        <v>78.29514623256694</v>
       </c>
       <c r="M11" t="n">
-        <v>87.118436043339</v>
+        <v>87.11843604333899</v>
       </c>
       <c r="N11" t="n">
-        <v>88.52810341804097</v>
+        <v>88.52810341804096</v>
       </c>
       <c r="O11" t="n">
-        <v>83.59457769619577</v>
+        <v>83.59457769619574</v>
       </c>
       <c r="P11" t="n">
-        <v>71.34603803479503</v>
+        <v>71.34603803479501</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.57790328547194</v>
+        <v>53.57790328547193</v>
       </c>
       <c r="R11" t="n">
         <v>31.16586651161373</v>
@@ -31789,7 +31789,7 @@
         <v>11.3058672418904</v>
       </c>
       <c r="T11" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213942</v>
       </c>
       <c r="U11" t="n">
         <v>0.03969147029517196</v>
@@ -31829,40 +31829,40 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2654601105885236</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H12" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894425</v>
       </c>
       <c r="I12" t="n">
-        <v>9.139745035613641</v>
+        <v>9.13974503561364</v>
       </c>
       <c r="J12" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K12" t="n">
-        <v>42.86598636639331</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L12" t="n">
-        <v>57.63860866089851</v>
+        <v>57.6386086608985</v>
       </c>
       <c r="M12" t="n">
-        <v>67.26153766973248</v>
+        <v>67.26153766973246</v>
       </c>
       <c r="N12" t="n">
-        <v>69.04175042889851</v>
+        <v>69.0417504288985</v>
       </c>
       <c r="O12" t="n">
-        <v>63.15971324164754</v>
+        <v>63.15971324164752</v>
       </c>
       <c r="P12" t="n">
         <v>50.69123813510149</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.88575025687891</v>
+        <v>33.8857502568789</v>
       </c>
       <c r="R12" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S12" t="n">
         <v>4.930805124308757</v>
@@ -31911,10 +31911,10 @@
         <v>0.2225528393343532</v>
       </c>
       <c r="H13" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I13" t="n">
-        <v>6.692770841073097</v>
+        <v>6.692770841073096</v>
       </c>
       <c r="J13" t="n">
         <v>15.73448574093877</v>
@@ -31923,34 +31923,34 @@
         <v>25.85659351539121</v>
       </c>
       <c r="L13" t="n">
-        <v>33.08753758612739</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M13" t="n">
-        <v>34.88616916947502</v>
+        <v>34.88616916947501</v>
       </c>
       <c r="N13" t="n">
         <v>34.056654041047</v>
       </c>
       <c r="O13" t="n">
-        <v>31.45683223609568</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P13" t="n">
         <v>26.91675431367485</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R13" t="n">
         <v>10.00678493952464</v>
       </c>
       <c r="S13" t="n">
-        <v>3.878489027308682</v>
+        <v>3.878489027308681</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9509075862467817</v>
+        <v>0.9509075862467815</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4961433786896496</v>
+        <v>0.4961433786896495</v>
       </c>
       <c r="H14" t="n">
-        <v>5.081128377005376</v>
+        <v>5.081128377005374</v>
       </c>
       <c r="I14" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J14" t="n">
-        <v>42.10954908706069</v>
+        <v>42.10954908706068</v>
       </c>
       <c r="K14" t="n">
-        <v>63.11129830699357</v>
+        <v>63.11129830699355</v>
       </c>
       <c r="L14" t="n">
-        <v>78.29514623256695</v>
+        <v>78.29514623256694</v>
       </c>
       <c r="M14" t="n">
-        <v>87.118436043339</v>
+        <v>87.11843604333899</v>
       </c>
       <c r="N14" t="n">
-        <v>88.52810341804097</v>
+        <v>88.52810341804096</v>
       </c>
       <c r="O14" t="n">
-        <v>83.59457769619577</v>
+        <v>83.59457769619574</v>
       </c>
       <c r="P14" t="n">
-        <v>71.34603803479503</v>
+        <v>71.34603803479501</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.57790328547194</v>
+        <v>53.57790328547193</v>
       </c>
       <c r="R14" t="n">
         <v>31.16586651161373</v>
@@ -32026,7 +32026,7 @@
         <v>11.3058672418904</v>
       </c>
       <c r="T14" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213942</v>
       </c>
       <c r="U14" t="n">
         <v>0.03969147029517196</v>
@@ -32066,40 +32066,40 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2654601105885236</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H15" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894425</v>
       </c>
       <c r="I15" t="n">
-        <v>9.139745035613641</v>
+        <v>9.13974503561364</v>
       </c>
       <c r="J15" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K15" t="n">
-        <v>42.86598636639331</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L15" t="n">
-        <v>57.63860866089851</v>
+        <v>57.6386086608985</v>
       </c>
       <c r="M15" t="n">
-        <v>67.26153766973248</v>
+        <v>67.26153766973246</v>
       </c>
       <c r="N15" t="n">
-        <v>69.04175042889851</v>
+        <v>69.0417504288985</v>
       </c>
       <c r="O15" t="n">
-        <v>63.15971324164754</v>
+        <v>63.15971324164752</v>
       </c>
       <c r="P15" t="n">
         <v>50.69123813510149</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.88575025687891</v>
+        <v>33.8857502568789</v>
       </c>
       <c r="R15" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S15" t="n">
         <v>4.930805124308757</v>
@@ -32148,10 +32148,10 @@
         <v>0.2225528393343532</v>
       </c>
       <c r="H16" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I16" t="n">
-        <v>6.692770841073097</v>
+        <v>6.692770841073096</v>
       </c>
       <c r="J16" t="n">
         <v>15.73448574093877</v>
@@ -32160,34 +32160,34 @@
         <v>25.85659351539121</v>
       </c>
       <c r="L16" t="n">
-        <v>33.08753758612739</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M16" t="n">
-        <v>34.88616916947502</v>
+        <v>34.88616916947501</v>
       </c>
       <c r="N16" t="n">
         <v>34.056654041047</v>
       </c>
       <c r="O16" t="n">
-        <v>31.45683223609568</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P16" t="n">
         <v>26.91675431367485</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R16" t="n">
         <v>10.00678493952464</v>
       </c>
       <c r="S16" t="n">
-        <v>3.878489027308682</v>
+        <v>3.878489027308681</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9509075862467817</v>
+        <v>0.9509075862467815</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4961433786896496</v>
+        <v>0.4961433786896495</v>
       </c>
       <c r="H17" t="n">
-        <v>5.081128377005376</v>
+        <v>5.081128377005374</v>
       </c>
       <c r="I17" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J17" t="n">
-        <v>42.10954908706069</v>
+        <v>42.10954908706068</v>
       </c>
       <c r="K17" t="n">
-        <v>63.11129830699357</v>
+        <v>63.11129830699355</v>
       </c>
       <c r="L17" t="n">
-        <v>78.29514623256695</v>
+        <v>78.29514623256694</v>
       </c>
       <c r="M17" t="n">
-        <v>87.118436043339</v>
+        <v>87.11843604333899</v>
       </c>
       <c r="N17" t="n">
-        <v>88.52810341804097</v>
+        <v>88.52810341804096</v>
       </c>
       <c r="O17" t="n">
-        <v>83.59457769619577</v>
+        <v>83.59457769619574</v>
       </c>
       <c r="P17" t="n">
-        <v>71.34603803479503</v>
+        <v>71.34603803479501</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.57790328547194</v>
+        <v>53.57790328547193</v>
       </c>
       <c r="R17" t="n">
         <v>31.16586651161373</v>
@@ -32263,7 +32263,7 @@
         <v>11.3058672418904</v>
       </c>
       <c r="T17" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213942</v>
       </c>
       <c r="U17" t="n">
         <v>0.03969147029517196</v>
@@ -32303,40 +32303,40 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2654601105885236</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H18" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894425</v>
       </c>
       <c r="I18" t="n">
-        <v>9.139745035613641</v>
+        <v>9.13974503561364</v>
       </c>
       <c r="J18" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K18" t="n">
-        <v>42.86598636639331</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L18" t="n">
-        <v>57.63860866089851</v>
+        <v>57.6386086608985</v>
       </c>
       <c r="M18" t="n">
-        <v>67.26153766973248</v>
+        <v>67.26153766973246</v>
       </c>
       <c r="N18" t="n">
-        <v>69.04175042889851</v>
+        <v>69.0417504288985</v>
       </c>
       <c r="O18" t="n">
-        <v>63.15971324164754</v>
+        <v>63.15971324164752</v>
       </c>
       <c r="P18" t="n">
         <v>50.69123813510149</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.88575025687891</v>
+        <v>33.8857502568789</v>
       </c>
       <c r="R18" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S18" t="n">
         <v>4.930805124308757</v>
@@ -32385,10 +32385,10 @@
         <v>0.2225528393343532</v>
       </c>
       <c r="H19" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I19" t="n">
-        <v>6.692770841073097</v>
+        <v>6.692770841073096</v>
       </c>
       <c r="J19" t="n">
         <v>15.73448574093877</v>
@@ -32397,34 +32397,34 @@
         <v>25.85659351539121</v>
       </c>
       <c r="L19" t="n">
-        <v>33.08753758612739</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M19" t="n">
-        <v>34.88616916947502</v>
+        <v>34.88616916947501</v>
       </c>
       <c r="N19" t="n">
         <v>34.056654041047</v>
       </c>
       <c r="O19" t="n">
-        <v>31.45683223609568</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P19" t="n">
         <v>26.91675431367485</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R19" t="n">
         <v>10.00678493952464</v>
       </c>
       <c r="S19" t="n">
-        <v>3.878489027308682</v>
+        <v>3.878489027308681</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9509075862467817</v>
+        <v>0.9509075862467815</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4961433786896496</v>
+        <v>0.4961433786896495</v>
       </c>
       <c r="H20" t="n">
-        <v>5.081128377005376</v>
+        <v>5.081128377005374</v>
       </c>
       <c r="I20" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J20" t="n">
-        <v>42.10954908706069</v>
+        <v>42.10954908706068</v>
       </c>
       <c r="K20" t="n">
-        <v>63.11129830699357</v>
+        <v>63.11129830699355</v>
       </c>
       <c r="L20" t="n">
-        <v>78.29514623256695</v>
+        <v>78.29514623256694</v>
       </c>
       <c r="M20" t="n">
-        <v>87.118436043339</v>
+        <v>87.11843604333899</v>
       </c>
       <c r="N20" t="n">
-        <v>88.52810341804097</v>
+        <v>88.52810341804096</v>
       </c>
       <c r="O20" t="n">
-        <v>83.59457769619577</v>
+        <v>83.59457769619574</v>
       </c>
       <c r="P20" t="n">
-        <v>71.34603803479503</v>
+        <v>71.34603803479501</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.57790328547194</v>
+        <v>53.57790328547193</v>
       </c>
       <c r="R20" t="n">
         <v>31.16586651161373</v>
@@ -32500,7 +32500,7 @@
         <v>11.3058672418904</v>
       </c>
       <c r="T20" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213942</v>
       </c>
       <c r="U20" t="n">
         <v>0.03969147029517196</v>
@@ -32540,40 +32540,40 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2654601105885236</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H21" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894425</v>
       </c>
       <c r="I21" t="n">
-        <v>9.139745035613641</v>
+        <v>9.13974503561364</v>
       </c>
       <c r="J21" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K21" t="n">
-        <v>42.86598636639331</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L21" t="n">
-        <v>57.63860866089851</v>
+        <v>57.6386086608985</v>
       </c>
       <c r="M21" t="n">
-        <v>67.26153766973248</v>
+        <v>67.26153766973246</v>
       </c>
       <c r="N21" t="n">
-        <v>69.04175042889851</v>
+        <v>69.0417504288985</v>
       </c>
       <c r="O21" t="n">
-        <v>63.15971324164754</v>
+        <v>63.15971324164752</v>
       </c>
       <c r="P21" t="n">
         <v>50.69123813510149</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.88575025687891</v>
+        <v>33.8857502568789</v>
       </c>
       <c r="R21" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S21" t="n">
         <v>4.930805124308757</v>
@@ -32622,10 +32622,10 @@
         <v>0.2225528393343532</v>
       </c>
       <c r="H22" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I22" t="n">
-        <v>6.692770841073097</v>
+        <v>6.692770841073096</v>
       </c>
       <c r="J22" t="n">
         <v>15.73448574093877</v>
@@ -32634,34 +32634,34 @@
         <v>25.85659351539121</v>
       </c>
       <c r="L22" t="n">
-        <v>33.08753758612739</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M22" t="n">
-        <v>34.88616916947502</v>
+        <v>34.88616916947501</v>
       </c>
       <c r="N22" t="n">
         <v>34.056654041047</v>
       </c>
       <c r="O22" t="n">
-        <v>31.45683223609568</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P22" t="n">
         <v>26.91675431367485</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R22" t="n">
         <v>10.00678493952464</v>
       </c>
       <c r="S22" t="n">
-        <v>3.878489027308682</v>
+        <v>3.878489027308681</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9509075862467817</v>
+        <v>0.9509075862467815</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4961433786896496</v>
+        <v>0.4961433786896495</v>
       </c>
       <c r="H23" t="n">
-        <v>5.081128377005376</v>
+        <v>5.081128377005374</v>
       </c>
       <c r="I23" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J23" t="n">
-        <v>42.10954908706069</v>
+        <v>42.10954908706068</v>
       </c>
       <c r="K23" t="n">
-        <v>63.11129830699357</v>
+        <v>63.11129830699355</v>
       </c>
       <c r="L23" t="n">
-        <v>78.29514623256695</v>
+        <v>78.29514623256694</v>
       </c>
       <c r="M23" t="n">
-        <v>87.118436043339</v>
+        <v>87.11843604333899</v>
       </c>
       <c r="N23" t="n">
-        <v>88.52810341804097</v>
+        <v>88.52810341804096</v>
       </c>
       <c r="O23" t="n">
-        <v>83.59457769619577</v>
+        <v>83.59457769619574</v>
       </c>
       <c r="P23" t="n">
-        <v>71.34603803479503</v>
+        <v>71.34603803479501</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.57790328547194</v>
+        <v>53.57790328547193</v>
       </c>
       <c r="R23" t="n">
         <v>31.16586651161373</v>
@@ -32737,7 +32737,7 @@
         <v>11.3058672418904</v>
       </c>
       <c r="T23" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213942</v>
       </c>
       <c r="U23" t="n">
         <v>0.03969147029517196</v>
@@ -32777,40 +32777,40 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2654601105885236</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H24" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894425</v>
       </c>
       <c r="I24" t="n">
-        <v>9.139745035613641</v>
+        <v>9.13974503561364</v>
       </c>
       <c r="J24" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K24" t="n">
-        <v>42.86598636639331</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L24" t="n">
-        <v>57.63860866089851</v>
+        <v>57.6386086608985</v>
       </c>
       <c r="M24" t="n">
-        <v>67.26153766973248</v>
+        <v>67.26153766973246</v>
       </c>
       <c r="N24" t="n">
-        <v>69.04175042889851</v>
+        <v>69.0417504288985</v>
       </c>
       <c r="O24" t="n">
-        <v>63.15971324164754</v>
+        <v>63.15971324164752</v>
       </c>
       <c r="P24" t="n">
         <v>50.69123813510149</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.88575025687891</v>
+        <v>33.8857502568789</v>
       </c>
       <c r="R24" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S24" t="n">
         <v>4.930805124308757</v>
@@ -32859,10 +32859,10 @@
         <v>0.2225528393343532</v>
       </c>
       <c r="H25" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I25" t="n">
-        <v>6.692770841073097</v>
+        <v>6.692770841073096</v>
       </c>
       <c r="J25" t="n">
         <v>15.73448574093877</v>
@@ -32871,34 +32871,34 @@
         <v>25.85659351539121</v>
       </c>
       <c r="L25" t="n">
-        <v>33.08753758612739</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M25" t="n">
-        <v>34.88616916947502</v>
+        <v>34.88616916947501</v>
       </c>
       <c r="N25" t="n">
         <v>34.056654041047</v>
       </c>
       <c r="O25" t="n">
-        <v>31.45683223609568</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P25" t="n">
         <v>26.91675431367485</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R25" t="n">
         <v>10.00678493952464</v>
       </c>
       <c r="S25" t="n">
-        <v>3.878489027308682</v>
+        <v>3.878489027308681</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9509075862467817</v>
+        <v>0.9509075862467815</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4961433786896496</v>
+        <v>0.4961433786896495</v>
       </c>
       <c r="H26" t="n">
-        <v>5.081128377005376</v>
+        <v>5.081128377005374</v>
       </c>
       <c r="I26" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J26" t="n">
-        <v>42.10954908706069</v>
+        <v>42.10954908706068</v>
       </c>
       <c r="K26" t="n">
-        <v>63.11129830699357</v>
+        <v>63.11129830699355</v>
       </c>
       <c r="L26" t="n">
-        <v>78.29514623256695</v>
+        <v>78.29514623256694</v>
       </c>
       <c r="M26" t="n">
-        <v>87.118436043339</v>
+        <v>87.11843604333899</v>
       </c>
       <c r="N26" t="n">
-        <v>88.52810341804097</v>
+        <v>88.52810341804096</v>
       </c>
       <c r="O26" t="n">
-        <v>83.59457769619577</v>
+        <v>83.59457769619574</v>
       </c>
       <c r="P26" t="n">
-        <v>71.34603803479503</v>
+        <v>71.34603803479501</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.57790328547194</v>
+        <v>53.57790328547193</v>
       </c>
       <c r="R26" t="n">
         <v>31.16586651161373</v>
@@ -32974,7 +32974,7 @@
         <v>11.3058672418904</v>
       </c>
       <c r="T26" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213942</v>
       </c>
       <c r="U26" t="n">
         <v>0.03969147029517196</v>
@@ -33014,40 +33014,40 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2654601105885236</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H27" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894425</v>
       </c>
       <c r="I27" t="n">
-        <v>9.139745035613641</v>
+        <v>9.13974503561364</v>
       </c>
       <c r="J27" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K27" t="n">
-        <v>42.86598636639331</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L27" t="n">
-        <v>57.63860866089851</v>
+        <v>57.6386086608985</v>
       </c>
       <c r="M27" t="n">
-        <v>67.26153766973248</v>
+        <v>67.26153766973246</v>
       </c>
       <c r="N27" t="n">
-        <v>69.04175042889851</v>
+        <v>69.0417504288985</v>
       </c>
       <c r="O27" t="n">
-        <v>63.15971324164754</v>
+        <v>63.15971324164752</v>
       </c>
       <c r="P27" t="n">
         <v>50.69123813510149</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.88575025687891</v>
+        <v>33.8857502568789</v>
       </c>
       <c r="R27" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S27" t="n">
         <v>4.930805124308757</v>
@@ -33096,10 +33096,10 @@
         <v>0.2225528393343532</v>
       </c>
       <c r="H28" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I28" t="n">
-        <v>6.692770841073097</v>
+        <v>6.692770841073096</v>
       </c>
       <c r="J28" t="n">
         <v>15.73448574093877</v>
@@ -33108,34 +33108,34 @@
         <v>25.85659351539121</v>
       </c>
       <c r="L28" t="n">
-        <v>33.08753758612739</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M28" t="n">
-        <v>34.88616916947502</v>
+        <v>34.88616916947501</v>
       </c>
       <c r="N28" t="n">
         <v>34.056654041047</v>
       </c>
       <c r="O28" t="n">
-        <v>31.45683223609568</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P28" t="n">
         <v>26.91675431367485</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R28" t="n">
         <v>10.00678493952464</v>
       </c>
       <c r="S28" t="n">
-        <v>3.878489027308682</v>
+        <v>3.878489027308681</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9509075862467817</v>
+        <v>0.9509075862467815</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4961433786896496</v>
+        <v>0.4961433786896495</v>
       </c>
       <c r="H29" t="n">
-        <v>5.081128377005376</v>
+        <v>5.081128377005374</v>
       </c>
       <c r="I29" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J29" t="n">
-        <v>42.10954908706069</v>
+        <v>42.10954908706068</v>
       </c>
       <c r="K29" t="n">
-        <v>63.11129830699357</v>
+        <v>63.11129830699355</v>
       </c>
       <c r="L29" t="n">
-        <v>78.29514623256695</v>
+        <v>78.29514623256694</v>
       </c>
       <c r="M29" t="n">
-        <v>87.118436043339</v>
+        <v>87.11843604333899</v>
       </c>
       <c r="N29" t="n">
-        <v>88.52810341804097</v>
+        <v>88.52810341804096</v>
       </c>
       <c r="O29" t="n">
-        <v>83.59457769619577</v>
+        <v>83.59457769619574</v>
       </c>
       <c r="P29" t="n">
-        <v>71.34603803479503</v>
+        <v>71.34603803479501</v>
       </c>
       <c r="Q29" t="n">
-        <v>53.57790328547194</v>
+        <v>53.57790328547193</v>
       </c>
       <c r="R29" t="n">
         <v>31.16586651161373</v>
@@ -33211,7 +33211,7 @@
         <v>11.3058672418904</v>
       </c>
       <c r="T29" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213942</v>
       </c>
       <c r="U29" t="n">
         <v>0.03969147029517196</v>
@@ -33251,40 +33251,40 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2654601105885236</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H30" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894425</v>
       </c>
       <c r="I30" t="n">
-        <v>9.139745035613641</v>
+        <v>9.13974503561364</v>
       </c>
       <c r="J30" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K30" t="n">
-        <v>42.86598636639331</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L30" t="n">
-        <v>57.63860866089851</v>
+        <v>57.6386086608985</v>
       </c>
       <c r="M30" t="n">
-        <v>67.26153766973248</v>
+        <v>67.26153766973246</v>
       </c>
       <c r="N30" t="n">
-        <v>69.04175042889851</v>
+        <v>69.0417504288985</v>
       </c>
       <c r="O30" t="n">
-        <v>63.15971324164754</v>
+        <v>63.15971324164752</v>
       </c>
       <c r="P30" t="n">
         <v>50.69123813510149</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.88575025687891</v>
+        <v>33.8857502568789</v>
       </c>
       <c r="R30" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S30" t="n">
         <v>4.930805124308757</v>
@@ -33333,10 +33333,10 @@
         <v>0.2225528393343532</v>
       </c>
       <c r="H31" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I31" t="n">
-        <v>6.692770841073097</v>
+        <v>6.692770841073096</v>
       </c>
       <c r="J31" t="n">
         <v>15.73448574093877</v>
@@ -33345,34 +33345,34 @@
         <v>25.85659351539121</v>
       </c>
       <c r="L31" t="n">
-        <v>33.08753758612739</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M31" t="n">
-        <v>34.88616916947502</v>
+        <v>34.88616916947501</v>
       </c>
       <c r="N31" t="n">
         <v>34.056654041047</v>
       </c>
       <c r="O31" t="n">
-        <v>31.45683223609568</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P31" t="n">
         <v>26.91675431367485</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R31" t="n">
         <v>10.00678493952464</v>
       </c>
       <c r="S31" t="n">
-        <v>3.878489027308682</v>
+        <v>3.878489027308681</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9509075862467817</v>
+        <v>0.9509075862467815</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4961433786896496</v>
+        <v>0.4961433786896495</v>
       </c>
       <c r="H32" t="n">
-        <v>5.081128377005376</v>
+        <v>5.081128377005374</v>
       </c>
       <c r="I32" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J32" t="n">
-        <v>42.10954908706069</v>
+        <v>42.10954908706068</v>
       </c>
       <c r="K32" t="n">
-        <v>63.11129830699357</v>
+        <v>63.11129830699355</v>
       </c>
       <c r="L32" t="n">
-        <v>78.29514623256695</v>
+        <v>78.29514623256694</v>
       </c>
       <c r="M32" t="n">
-        <v>87.118436043339</v>
+        <v>87.11843604333899</v>
       </c>
       <c r="N32" t="n">
-        <v>88.52810341804097</v>
+        <v>88.52810341804096</v>
       </c>
       <c r="O32" t="n">
-        <v>83.59457769619577</v>
+        <v>83.59457769619574</v>
       </c>
       <c r="P32" t="n">
-        <v>71.34603803479503</v>
+        <v>71.34603803479501</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.57790328547194</v>
+        <v>53.57790328547193</v>
       </c>
       <c r="R32" t="n">
         <v>31.16586651161373</v>
@@ -33448,7 +33448,7 @@
         <v>11.3058672418904</v>
       </c>
       <c r="T32" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213942</v>
       </c>
       <c r="U32" t="n">
         <v>0.03969147029517196</v>
@@ -33488,40 +33488,40 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2654601105885236</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H33" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894425</v>
       </c>
       <c r="I33" t="n">
-        <v>9.139745035613641</v>
+        <v>9.13974503561364</v>
       </c>
       <c r="J33" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K33" t="n">
-        <v>42.86598636639331</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L33" t="n">
-        <v>57.63860866089851</v>
+        <v>57.6386086608985</v>
       </c>
       <c r="M33" t="n">
-        <v>67.26153766973248</v>
+        <v>67.26153766973246</v>
       </c>
       <c r="N33" t="n">
-        <v>69.04175042889851</v>
+        <v>69.0417504288985</v>
       </c>
       <c r="O33" t="n">
-        <v>63.15971324164754</v>
+        <v>63.15971324164752</v>
       </c>
       <c r="P33" t="n">
         <v>50.69123813510149</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.88575025687891</v>
+        <v>33.8857502568789</v>
       </c>
       <c r="R33" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S33" t="n">
         <v>4.930805124308757</v>
@@ -33570,10 +33570,10 @@
         <v>0.2225528393343532</v>
       </c>
       <c r="H34" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I34" t="n">
-        <v>6.692770841073097</v>
+        <v>6.692770841073096</v>
       </c>
       <c r="J34" t="n">
         <v>15.73448574093877</v>
@@ -33582,34 +33582,34 @@
         <v>25.85659351539121</v>
       </c>
       <c r="L34" t="n">
-        <v>33.08753758612739</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M34" t="n">
-        <v>34.88616916947502</v>
+        <v>34.88616916947501</v>
       </c>
       <c r="N34" t="n">
         <v>34.056654041047</v>
       </c>
       <c r="O34" t="n">
-        <v>31.45683223609568</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P34" t="n">
         <v>26.91675431367485</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R34" t="n">
         <v>10.00678493952464</v>
       </c>
       <c r="S34" t="n">
-        <v>3.878489027308682</v>
+        <v>3.878489027308681</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9509075862467817</v>
+        <v>0.9509075862467815</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4961433786896496</v>
+        <v>0.4961433786896495</v>
       </c>
       <c r="H35" t="n">
-        <v>5.081128377005376</v>
+        <v>5.081128377005374</v>
       </c>
       <c r="I35" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J35" t="n">
-        <v>42.10954908706069</v>
+        <v>42.10954908706068</v>
       </c>
       <c r="K35" t="n">
-        <v>63.11129830699357</v>
+        <v>63.11129830699355</v>
       </c>
       <c r="L35" t="n">
-        <v>78.29514623256695</v>
+        <v>78.29514623256694</v>
       </c>
       <c r="M35" t="n">
-        <v>87.118436043339</v>
+        <v>87.11843604333899</v>
       </c>
       <c r="N35" t="n">
-        <v>88.52810341804097</v>
+        <v>88.52810341804096</v>
       </c>
       <c r="O35" t="n">
-        <v>83.59457769619577</v>
+        <v>83.59457769619574</v>
       </c>
       <c r="P35" t="n">
-        <v>71.34603803479503</v>
+        <v>71.34603803479501</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.57790328547194</v>
+        <v>53.57790328547193</v>
       </c>
       <c r="R35" t="n">
         <v>31.16586651161373</v>
@@ -33685,7 +33685,7 @@
         <v>11.3058672418904</v>
       </c>
       <c r="T35" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213942</v>
       </c>
       <c r="U35" t="n">
         <v>0.03969147029517196</v>
@@ -33725,40 +33725,40 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2654601105885236</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H36" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894425</v>
       </c>
       <c r="I36" t="n">
-        <v>9.139745035613641</v>
+        <v>9.13974503561364</v>
       </c>
       <c r="J36" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K36" t="n">
-        <v>42.86598636639331</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L36" t="n">
-        <v>57.63860866089851</v>
+        <v>57.6386086608985</v>
       </c>
       <c r="M36" t="n">
-        <v>67.26153766973248</v>
+        <v>67.26153766973246</v>
       </c>
       <c r="N36" t="n">
-        <v>69.04175042889851</v>
+        <v>69.0417504288985</v>
       </c>
       <c r="O36" t="n">
-        <v>63.15971324164754</v>
+        <v>63.15971324164752</v>
       </c>
       <c r="P36" t="n">
         <v>50.69123813510149</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.88575025687891</v>
+        <v>33.8857502568789</v>
       </c>
       <c r="R36" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S36" t="n">
         <v>4.930805124308757</v>
@@ -33807,10 +33807,10 @@
         <v>0.2225528393343532</v>
       </c>
       <c r="H37" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I37" t="n">
-        <v>6.692770841073097</v>
+        <v>6.692770841073096</v>
       </c>
       <c r="J37" t="n">
         <v>15.73448574093877</v>
@@ -33819,34 +33819,34 @@
         <v>25.85659351539121</v>
       </c>
       <c r="L37" t="n">
-        <v>33.08753758612739</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M37" t="n">
-        <v>34.88616916947502</v>
+        <v>34.88616916947501</v>
       </c>
       <c r="N37" t="n">
         <v>34.056654041047</v>
       </c>
       <c r="O37" t="n">
-        <v>31.45683223609568</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P37" t="n">
         <v>26.91675431367485</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R37" t="n">
         <v>10.00678493952464</v>
       </c>
       <c r="S37" t="n">
-        <v>3.878489027308682</v>
+        <v>3.878489027308681</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9509075862467817</v>
+        <v>0.9509075862467815</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4961433786896496</v>
+        <v>0.4961433786896495</v>
       </c>
       <c r="H38" t="n">
-        <v>5.081128377005376</v>
+        <v>5.081128377005374</v>
       </c>
       <c r="I38" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J38" t="n">
-        <v>42.10954908706069</v>
+        <v>42.10954908706068</v>
       </c>
       <c r="K38" t="n">
-        <v>63.11129830699357</v>
+        <v>63.11129830699355</v>
       </c>
       <c r="L38" t="n">
-        <v>78.29514623256695</v>
+        <v>78.29514623256694</v>
       </c>
       <c r="M38" t="n">
-        <v>87.118436043339</v>
+        <v>87.11843604333899</v>
       </c>
       <c r="N38" t="n">
-        <v>88.52810341804097</v>
+        <v>88.52810341804096</v>
       </c>
       <c r="O38" t="n">
-        <v>83.59457769619577</v>
+        <v>83.59457769619574</v>
       </c>
       <c r="P38" t="n">
-        <v>71.34603803479503</v>
+        <v>71.34603803479501</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.57790328547194</v>
+        <v>53.57790328547193</v>
       </c>
       <c r="R38" t="n">
         <v>31.16586651161373</v>
@@ -33922,7 +33922,7 @@
         <v>11.3058672418904</v>
       </c>
       <c r="T38" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213942</v>
       </c>
       <c r="U38" t="n">
         <v>0.03969147029517196</v>
@@ -33962,40 +33962,40 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2654601105885236</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H39" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894425</v>
       </c>
       <c r="I39" t="n">
-        <v>9.139745035613641</v>
+        <v>9.13974503561364</v>
       </c>
       <c r="J39" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K39" t="n">
-        <v>42.86598636639331</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L39" t="n">
-        <v>57.63860866089851</v>
+        <v>57.6386086608985</v>
       </c>
       <c r="M39" t="n">
-        <v>67.26153766973248</v>
+        <v>67.26153766973246</v>
       </c>
       <c r="N39" t="n">
-        <v>69.04175042889851</v>
+        <v>69.0417504288985</v>
       </c>
       <c r="O39" t="n">
-        <v>63.15971324164754</v>
+        <v>63.15971324164752</v>
       </c>
       <c r="P39" t="n">
         <v>50.69123813510149</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.88575025687891</v>
+        <v>33.8857502568789</v>
       </c>
       <c r="R39" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S39" t="n">
         <v>4.930805124308757</v>
@@ -34044,10 +34044,10 @@
         <v>0.2225528393343532</v>
       </c>
       <c r="H40" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I40" t="n">
-        <v>6.692770841073097</v>
+        <v>6.692770841073096</v>
       </c>
       <c r="J40" t="n">
         <v>15.73448574093877</v>
@@ -34056,34 +34056,34 @@
         <v>25.85659351539121</v>
       </c>
       <c r="L40" t="n">
-        <v>33.08753758612739</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M40" t="n">
-        <v>34.88616916947502</v>
+        <v>34.88616916947501</v>
       </c>
       <c r="N40" t="n">
         <v>34.056654041047</v>
       </c>
       <c r="O40" t="n">
-        <v>31.45683223609568</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P40" t="n">
         <v>26.91675431367485</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R40" t="n">
         <v>10.00678493952464</v>
       </c>
       <c r="S40" t="n">
-        <v>3.878489027308682</v>
+        <v>3.878489027308681</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9509075862467817</v>
+        <v>0.9509075862467815</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4961433786896496</v>
+        <v>0.4961433786896495</v>
       </c>
       <c r="H41" t="n">
-        <v>5.081128377005376</v>
+        <v>5.081128377005374</v>
       </c>
       <c r="I41" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J41" t="n">
-        <v>42.10954908706069</v>
+        <v>42.10954908706068</v>
       </c>
       <c r="K41" t="n">
-        <v>63.11129830699357</v>
+        <v>63.11129830699355</v>
       </c>
       <c r="L41" t="n">
-        <v>78.29514623256695</v>
+        <v>78.29514623256694</v>
       </c>
       <c r="M41" t="n">
-        <v>87.118436043339</v>
+        <v>87.11843604333899</v>
       </c>
       <c r="N41" t="n">
-        <v>88.52810341804097</v>
+        <v>88.52810341804096</v>
       </c>
       <c r="O41" t="n">
-        <v>83.59457769619577</v>
+        <v>83.59457769619574</v>
       </c>
       <c r="P41" t="n">
-        <v>71.34603803479503</v>
+        <v>71.34603803479501</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.57790328547194</v>
+        <v>53.57790328547193</v>
       </c>
       <c r="R41" t="n">
         <v>31.16586651161373</v>
@@ -34159,7 +34159,7 @@
         <v>11.3058672418904</v>
       </c>
       <c r="T41" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213942</v>
       </c>
       <c r="U41" t="n">
         <v>0.03969147029517196</v>
@@ -34199,40 +34199,40 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2654601105885236</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H42" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894425</v>
       </c>
       <c r="I42" t="n">
-        <v>9.139745035613641</v>
+        <v>9.13974503561364</v>
       </c>
       <c r="J42" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K42" t="n">
-        <v>42.86598636639331</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L42" t="n">
-        <v>57.63860866089851</v>
+        <v>57.6386086608985</v>
       </c>
       <c r="M42" t="n">
-        <v>67.26153766973248</v>
+        <v>67.26153766973246</v>
       </c>
       <c r="N42" t="n">
-        <v>69.04175042889851</v>
+        <v>69.0417504288985</v>
       </c>
       <c r="O42" t="n">
-        <v>63.15971324164754</v>
+        <v>63.15971324164752</v>
       </c>
       <c r="P42" t="n">
         <v>50.69123813510149</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.88575025687891</v>
+        <v>33.8857502568789</v>
       </c>
       <c r="R42" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S42" t="n">
         <v>4.930805124308757</v>
@@ -34281,10 +34281,10 @@
         <v>0.2225528393343532</v>
       </c>
       <c r="H43" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I43" t="n">
-        <v>6.692770841073097</v>
+        <v>6.692770841073096</v>
       </c>
       <c r="J43" t="n">
         <v>15.73448574093877</v>
@@ -34293,34 +34293,34 @@
         <v>25.85659351539121</v>
       </c>
       <c r="L43" t="n">
-        <v>33.08753758612739</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M43" t="n">
-        <v>34.88616916947502</v>
+        <v>34.88616916947501</v>
       </c>
       <c r="N43" t="n">
         <v>34.056654041047</v>
       </c>
       <c r="O43" t="n">
-        <v>31.45683223609568</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P43" t="n">
         <v>26.91675431367485</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R43" t="n">
         <v>10.00678493952464</v>
       </c>
       <c r="S43" t="n">
-        <v>3.878489027308682</v>
+        <v>3.878489027308681</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9509075862467817</v>
+        <v>0.9509075862467815</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4961433786896496</v>
+        <v>0.4961433786896495</v>
       </c>
       <c r="H44" t="n">
-        <v>5.081128377005376</v>
+        <v>5.081128377005374</v>
       </c>
       <c r="I44" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J44" t="n">
-        <v>42.10954908706069</v>
+        <v>42.10954908706068</v>
       </c>
       <c r="K44" t="n">
-        <v>63.11129830699357</v>
+        <v>63.11129830699355</v>
       </c>
       <c r="L44" t="n">
-        <v>78.29514623256695</v>
+        <v>78.29514623256694</v>
       </c>
       <c r="M44" t="n">
-        <v>87.118436043339</v>
+        <v>87.11843604333899</v>
       </c>
       <c r="N44" t="n">
-        <v>88.52810341804097</v>
+        <v>88.52810341804096</v>
       </c>
       <c r="O44" t="n">
-        <v>83.59457769619577</v>
+        <v>83.59457769619574</v>
       </c>
       <c r="P44" t="n">
-        <v>71.34603803479503</v>
+        <v>71.34603803479501</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.57790328547194</v>
+        <v>53.57790328547193</v>
       </c>
       <c r="R44" t="n">
         <v>31.16586651161373</v>
@@ -34396,7 +34396,7 @@
         <v>11.3058672418904</v>
       </c>
       <c r="T44" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213942</v>
       </c>
       <c r="U44" t="n">
         <v>0.03969147029517196</v>
@@ -34436,40 +34436,40 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2654601105885236</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H45" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894425</v>
       </c>
       <c r="I45" t="n">
-        <v>9.139745035613641</v>
+        <v>9.13974503561364</v>
       </c>
       <c r="J45" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K45" t="n">
-        <v>42.86598636639331</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L45" t="n">
-        <v>57.63860866089851</v>
+        <v>57.6386086608985</v>
       </c>
       <c r="M45" t="n">
-        <v>67.26153766973248</v>
+        <v>67.26153766973246</v>
       </c>
       <c r="N45" t="n">
-        <v>69.04175042889851</v>
+        <v>69.0417504288985</v>
       </c>
       <c r="O45" t="n">
-        <v>63.15971324164754</v>
+        <v>63.15971324164752</v>
       </c>
       <c r="P45" t="n">
         <v>50.69123813510149</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.88575025687891</v>
+        <v>33.8857502568789</v>
       </c>
       <c r="R45" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S45" t="n">
         <v>4.930805124308757</v>
@@ -34518,10 +34518,10 @@
         <v>0.2225528393343532</v>
       </c>
       <c r="H46" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I46" t="n">
-        <v>6.692770841073097</v>
+        <v>6.692770841073096</v>
       </c>
       <c r="J46" t="n">
         <v>15.73448574093877</v>
@@ -34530,34 +34530,34 @@
         <v>25.85659351539121</v>
       </c>
       <c r="L46" t="n">
-        <v>33.08753758612739</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M46" t="n">
-        <v>34.88616916947502</v>
+        <v>34.88616916947501</v>
       </c>
       <c r="N46" t="n">
         <v>34.056654041047</v>
       </c>
       <c r="O46" t="n">
-        <v>31.45683223609568</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P46" t="n">
         <v>26.91675431367485</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R46" t="n">
         <v>10.00678493952464</v>
       </c>
       <c r="S46" t="n">
-        <v>3.878489027308682</v>
+        <v>3.878489027308681</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9509075862467817</v>
+        <v>0.9509075862467815</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20.20320156481825</v>
+        <v>20.20320156481828</v>
       </c>
       <c r="J11" t="n">
-        <v>71.88973399955108</v>
+        <v>71.88973399955111</v>
       </c>
       <c r="K11" t="n">
-        <v>54.82363536414706</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>54.72283346283892</v>
+        <v>54.72283346283893</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>68.83080047275763</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>74.4753747449876</v>
+        <v>108.8926439055178</v>
       </c>
       <c r="P11" t="n">
-        <v>52.19380899941676</v>
+        <v>52.19380899941677</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.12142735788962</v>
+        <v>15.42708411990424</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>27.26990896884447</v>
       </c>
       <c r="S11" t="n">
-        <v>11.7408573443607</v>
+        <v>11.74085734436072</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>89.41737057225593</v>
+        <v>89.41737057225585</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,25 +35541,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>26.21625033532575</v>
       </c>
       <c r="C13" t="n">
-        <v>38.9633888948072</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>57.29437531149017</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>60.14092041620503</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>38.63290573523582</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>46.64456687953813</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35568,10 +35568,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>106.3686086251288</v>
       </c>
       <c r="L13" t="n">
-        <v>35.55981506863375</v>
+        <v>45.71922115368989</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>98.93189219176551</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35641,10 +35641,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>20.20320156481828</v>
       </c>
       <c r="J14" t="n">
-        <v>71.88973399955108</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,25 +35653,25 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>28.24526966588263</v>
       </c>
       <c r="N14" t="n">
-        <v>71.15030823737435</v>
+        <v>71.15030823737436</v>
       </c>
       <c r="O14" t="n">
-        <v>65.54876338606074</v>
+        <v>108.8926439055178</v>
       </c>
       <c r="P14" t="n">
-        <v>101.9485659651453</v>
+        <v>52.19380899941677</v>
       </c>
       <c r="Q14" t="n">
-        <v>108.8926439055178</v>
+        <v>43.12979748389323</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>95.61498563674621</v>
       </c>
       <c r="S14" t="n">
-        <v>11.7408573443607</v>
+        <v>11.74085734436072</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35699,7 +35699,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40.92781621566471</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -35714,7 +35714,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>48.48955435659123</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>89.41737057225585</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,7 +35778,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.1509391426671</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -35787,19 +35787,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>59.32531765281036</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>60.14092041620506</v>
       </c>
       <c r="G16" t="n">
-        <v>38.63290573523582</v>
+        <v>38.63290573523585</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>59.234165869679</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35814,7 +35814,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8926439055178</v>
+        <v>101.2438154343625</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>77.21833072010648</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>108.8926439055177</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>108.8926439055177</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>22.86823821655766</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35908,16 +35908,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>108.8926439055177</v>
       </c>
       <c r="T17" t="n">
-        <v>108.8926439055177</v>
+        <v>18.33868472792899</v>
       </c>
       <c r="U17" t="n">
         <v>81.62470290489875</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>4.529553488628665</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>108.8926439055177</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>18.338684727929</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36139,22 +36139,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>104.4929411214564</v>
       </c>
       <c r="R20" t="n">
         <v>108.8926439055177</v>
       </c>
       <c r="S20" t="n">
-        <v>108.8926439055177</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>108.8926439055177</v>
       </c>
       <c r="U20" t="n">
-        <v>81.62470290489875</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>4.529553488628665</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>18.33868472792904</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>108.8926439055177</v>
       </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>108.8926439055177</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>22.86823821655765</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36382,7 +36382,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>108.8926439055177</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>108.8926439055177</v>
@@ -36391,7 +36391,7 @@
         <v>81.62470290489875</v>
       </c>
       <c r="V23" t="n">
-        <v>4.529553488628665</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.637599470508611</v>
+        <v>2.637599470508608</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>230.1846116841982</v>
       </c>
       <c r="K26" t="n">
         <v>374.3692623438488</v>
       </c>
       <c r="L26" t="n">
-        <v>471.5248945009977</v>
+        <v>37.15723136852927</v>
       </c>
       <c r="M26" t="n">
-        <v>518.7592732109938</v>
+        <v>330.0249334792939</v>
       </c>
       <c r="N26" t="n">
-        <v>508.4255075315282</v>
+        <v>36.91780710444853</v>
       </c>
       <c r="O26" t="n">
-        <v>47.9831612917511</v>
+        <v>444.0153498050063</v>
       </c>
       <c r="P26" t="n">
-        <v>167.6896835837907</v>
+        <v>369.298863403449</v>
       </c>
       <c r="Q26" t="n">
-        <v>57.63744594418456</v>
+        <v>246.3717856758844</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>78.04938354243654</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>7.778181513778776</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.80802206633366</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>117.4151943274645</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>175.4450348800194</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36726,52 +36726,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>8.650648241016086</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>21.39778680049756</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>39.72877321718053</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>42.5753183218954</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>21.06730364092618</v>
       </c>
       <c r="H28" t="n">
-        <v>29.07896478522849</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>9.287887807369117</v>
       </c>
       <c r="J28" t="n">
-        <v>107.8345470404126</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>11.08218379755786</v>
       </c>
       <c r="L28" t="n">
-        <v>70.54866781513667</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>85.08357716638358</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>88.25367370568489</v>
       </c>
       <c r="O28" t="n">
-        <v>66.02504026606674</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>33.0387762123587</v>
+        <v>33.03877621235869</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>127.6094053386583</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,25 +36826,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.637599470508611</v>
+        <v>2.637599470508608</v>
       </c>
       <c r="J29" t="n">
-        <v>21.82598451774244</v>
+        <v>230.1846116841982</v>
       </c>
       <c r="K29" t="n">
         <v>374.3692623438488</v>
       </c>
       <c r="L29" t="n">
-        <v>282.7905547692978</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>51.26519837844798</v>
+        <v>518.7592732109938</v>
       </c>
       <c r="N29" t="n">
-        <v>508.4255075315282</v>
+        <v>53.58470614306469</v>
       </c>
       <c r="O29" t="n">
-        <v>292.0420717868959</v>
+        <v>275.7713424032198</v>
       </c>
       <c r="P29" t="n">
         <v>369.298863403449</v>
@@ -36853,7 +36853,7 @@
         <v>246.3717856758844</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>78.04938354243654</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36887,25 +36887,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>9.695696926821084</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>42.62191615705433</v>
       </c>
       <c r="E30" t="n">
         <v>32.70090602452606</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>45.2281076481506</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>52.97658963724609</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.80438948992371</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>129.7179208793484</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36993,10 +36993,10 @@
         <v>11.08218379755786</v>
       </c>
       <c r="L31" t="n">
-        <v>21.55358442291677</v>
+        <v>70.54866781513667</v>
       </c>
       <c r="M31" t="n">
-        <v>88.16786955225999</v>
+        <v>85.08357716638358</v>
       </c>
       <c r="N31" t="n">
         <v>88.25367370568489</v>
@@ -37005,10 +37005,10 @@
         <v>66.02504026606674</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>81.69861433231488</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.6094053386583</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.637599470508611</v>
+        <v>2.637599470508551</v>
       </c>
       <c r="J32" t="n">
-        <v>41.45027195249827</v>
+        <v>230.1846116841981</v>
       </c>
       <c r="K32" t="n">
-        <v>374.3692623438488</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>282.7905547692978</v>
       </c>
       <c r="M32" t="n">
-        <v>51.26519837844798</v>
+        <v>356.5520353987441</v>
       </c>
       <c r="N32" t="n">
-        <v>508.4255075315282</v>
+        <v>508.4255075315281</v>
       </c>
       <c r="O32" t="n">
-        <v>394.8707604263861</v>
+        <v>444.0153498050062</v>
       </c>
       <c r="P32" t="n">
-        <v>369.298863403449</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>114.2145027271036</v>
+        <v>246.3717856758844</v>
       </c>
       <c r="R32" t="n">
-        <v>9.704306874534812</v>
+        <v>78.04938354243649</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37136,7 +37136,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>52.97658963724604</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -37160,13 +37160,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>97.08535613909035</v>
+        <v>112.862714640014</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>86.13786025470782</v>
+        <v>17.38391211653844</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37200,55 +37200,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>8.650648241016029</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>21.3977868004975</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>41.75971555850066</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>21.06730364092612</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>41.66856377536936</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.64828956922746</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>70.54866781513667</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>88.16786955225999</v>
+        <v>88.16786955225993</v>
       </c>
       <c r="N34" t="n">
-        <v>55.63332610508434</v>
+        <v>98.29758791914446</v>
       </c>
       <c r="O34" t="n">
-        <v>66.02504026606674</v>
+        <v>85.1960469772488</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>12.80482139210938</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>25.34997700144218</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>34.69650929501513</v>
+        <v>34.69650929501512</v>
       </c>
       <c r="J35" t="n">
-        <v>41.45027195249827</v>
+        <v>262.2435215087046</v>
       </c>
       <c r="K35" t="n">
-        <v>406.4281721683553</v>
+        <v>198.7295452649171</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>433.8462743594891</v>
       </c>
       <c r="M35" t="n">
-        <v>83.32410820295449</v>
+        <v>362.0017371424342</v>
       </c>
       <c r="N35" t="n">
-        <v>433.8462743594891</v>
+        <v>85.64361596757121</v>
       </c>
       <c r="O35" t="n">
-        <v>433.8462743594891</v>
+        <v>80.04207111625759</v>
       </c>
       <c r="P35" t="n">
-        <v>184.8780227886604</v>
+        <v>66.68711672961362</v>
       </c>
       <c r="Q35" t="n">
-        <v>57.6231052140901</v>
+        <v>57.62310521409008</v>
       </c>
       <c r="R35" t="n">
-        <v>41.76321669904132</v>
+        <v>110.1082933669431</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>26.23416507455757</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37391,13 +37391,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>45.05462882081155</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>45.05462882081155</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37455,10 +37455,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>61.13787460973501</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>73.72747359987588</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>40.99063917265854</v>
+        <v>86.45868055405863</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37482,13 +37482,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>91.71163845030333</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.31433162209256</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.6965092950151</v>
+        <v>34.69650929501512</v>
       </c>
       <c r="J38" t="n">
-        <v>262.2435215087046</v>
+        <v>86.38304172974796</v>
       </c>
       <c r="K38" t="n">
-        <v>406.4281721683553</v>
+        <v>69.31694309434391</v>
       </c>
       <c r="L38" t="n">
-        <v>69.21614119303577</v>
+        <v>321.619761753116</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>433.8462743594891</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>85.64361596757121</v>
       </c>
       <c r="O38" t="n">
-        <v>197.4857603725372</v>
+        <v>433.8462743594891</v>
       </c>
       <c r="P38" t="n">
-        <v>401.3577732279555</v>
+        <v>66.68711672961362</v>
       </c>
       <c r="Q38" t="n">
-        <v>278.4306955003909</v>
+        <v>75.70812438426411</v>
       </c>
       <c r="R38" t="n">
-        <v>41.76321669904129</v>
+        <v>110.1082933669431</v>
       </c>
       <c r="S38" t="n">
-        <v>26.23416507455754</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>45.05462882081164</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>45.05462882081155</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>40.7095580655226</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37689,7 +37689,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>53.1262134654327</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>24.88108495901974</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37707,22 +37707,22 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>27.87658599024808</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>117.2549568017553</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>33.0387762123587</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.40888682594875</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37743,7 +37743,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>2.044575688438186</v>
       </c>
     </row>
     <row r="41">
@@ -37774,37 +37774,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.69650929501512</v>
       </c>
       <c r="J41" t="n">
-        <v>262.2435215087047</v>
+        <v>262.2435215087046</v>
       </c>
       <c r="K41" t="n">
-        <v>73.39813135271535</v>
+        <v>277.4184269631388</v>
       </c>
       <c r="L41" t="n">
-        <v>69.21614119303585</v>
+        <v>69.21614119303578</v>
       </c>
       <c r="M41" t="n">
-        <v>433.8462743594891</v>
+        <v>83.32410820295448</v>
       </c>
       <c r="N41" t="n">
-        <v>85.64361596757128</v>
+        <v>383.9369165448426</v>
       </c>
       <c r="O41" t="n">
-        <v>433.8462743594891</v>
+        <v>80.04207111625759</v>
       </c>
       <c r="P41" t="n">
-        <v>234.0415093108986</v>
+        <v>401.3577732279556</v>
       </c>
       <c r="Q41" t="n">
-        <v>57.62310521409015</v>
+        <v>57.62310521409008</v>
       </c>
       <c r="R41" t="n">
-        <v>41.76321669904138</v>
+        <v>41.76321669904132</v>
       </c>
       <c r="S41" t="n">
-        <v>26.23416507455763</v>
+        <v>26.23416507455757</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37832,7 +37832,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>45.05462882081155</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -37847,7 +37847,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>21.57392063940494</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -37886,7 +37886,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>23.48070818140644</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -37914,7 +37914,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>53.45669662500407</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -37926,7 +37926,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>53.1262134654327</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>112.707199393734</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>71.5874089139252</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>65.46311961062766</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.69650929501513</v>
+        <v>34.69650929501512</v>
       </c>
       <c r="J44" t="n">
-        <v>86.38304172974796</v>
+        <v>256.2881379237107</v>
       </c>
       <c r="K44" t="n">
-        <v>353.1613146703986</v>
+        <v>406.4281721683553</v>
       </c>
       <c r="L44" t="n">
-        <v>282.7905547692978</v>
+        <v>69.21614119303578</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>83.32410820295448</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>85.64361596757121</v>
       </c>
       <c r="O44" t="n">
-        <v>433.8462743594891</v>
+        <v>255.2810100733063</v>
       </c>
       <c r="P44" t="n">
         <v>401.3577732279556</v>
       </c>
       <c r="Q44" t="n">
-        <v>57.6231052140901</v>
+        <v>57.62310521409008</v>
       </c>
       <c r="R44" t="n">
         <v>41.76321669904132</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>45.05462882081155</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>32.54814971098737</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>12.50647910982419</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.3615461487102409</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38163,7 +38163,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>53.1262134654327</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>86.45868055405863</v>
       </c>
       <c r="L46" t="n">
-        <v>122.3682277681265</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38193,13 +38193,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>91.71163845030333</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.31433162209256</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
